--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4977" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC85F0AF-57EA-4CDC-9F19-4B63CF03DEBD}"/>
+  <xr:revisionPtr revIDLastSave="5006" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD08403-3EEC-460B-9080-A0F1B5AC05A0}"/>
   <bookViews>
     <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>May Exp</t>
-  </si>
-  <si>
-    <t>TFFIT</t>
   </si>
   <si>
     <t>KTC</t>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A4" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="28">
         <v>44806</v>
@@ -2113,7 +2110,7 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A25" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="28">
         <v>44809</v>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A27" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="28">
         <v>44816</v>
@@ -2313,7 +2310,7 @@
       <c r="E33" s="32"/>
       <c r="F33" s="30"/>
       <c r="G33" s="32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H33" s="35">
         <v>35345</v>
@@ -2552,7 +2549,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="28">
         <v>44840</v>
@@ -2785,7 +2782,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="35">
         <v>71130</v>
@@ -3119,7 +3116,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="28">
         <v>44872</v>
@@ -3152,7 +3149,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="28">
         <v>44873</v>
@@ -3185,7 +3182,7 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="28">
         <v>44880</v>
@@ -3218,7 +3215,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="28">
         <v>44886</v>
@@ -3251,7 +3248,7 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="28">
         <v>44887</v>
@@ -3385,7 +3382,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="30"/>
       <c r="G17" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="35">
         <v>37950</v>
@@ -3940,7 +3937,7 @@
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="28">
         <v>44918</v>
@@ -4206,7 +4203,7 @@
       <c r="E24" s="32"/>
       <c r="F24" s="30"/>
       <c r="G24" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="35">
         <v>29530</v>
@@ -4756,7 +4753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA11ED3-C20C-4156-9EBA-059780905D86}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6600,11 +6597,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37083A6-0AEB-499E-BA73-BD7B20354C2D}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -6852,7 +6849,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A8" s="27" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B8" s="28">
         <v>45096</v>
@@ -6872,8 +6869,8 @@
         <v>2064</v>
       </c>
       <c r="H8" s="32">
-        <f>G8*0.9</f>
-        <v>1857.6000000000001</v>
+        <f>G8</f>
+        <v>2064</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="17"/>
@@ -6924,7 +6921,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="34">
         <f>SUM(H2:H9)</f>
-        <v>69926.600000000006</v>
+        <v>70133</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="19"/>
@@ -6935,7 +6932,7 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A11" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="28">
         <v>45085</v>
@@ -6956,7 +6953,7 @@
         <v>20953.307339999999</v>
       </c>
       <c r="H11" s="32">
-        <f t="shared" ref="H11:H14" si="0">G11-E11</f>
+        <f t="shared" ref="H11:H18" si="0">G11-E11</f>
         <v>909.00933999999688</v>
       </c>
       <c r="I11" s="11"/>
@@ -6968,7 +6965,7 @@
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A12" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="28">
         <v>45085</v>
@@ -6989,7 +6986,7 @@
         <v>25543.079424</v>
       </c>
       <c r="H12" s="32">
-        <f t="shared" ref="H12:H13" si="1">G12-E12</f>
+        <f t="shared" ref="H12:H17" si="1">G12-E12</f>
         <v>1089.0358640000013</v>
       </c>
       <c r="I12" s="11"/>
@@ -7055,7 +7052,7 @@
         <v>33525.58</v>
       </c>
       <c r="H14" s="32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2857.8100000000013</v>
       </c>
       <c r="I14" s="11"/>
@@ -7066,22 +7063,30 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32">
-        <f>SUM(E11:E14)</f>
-        <v>98918.60156000001</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32">
-        <f>SUM(G11:G14)</f>
-        <v>105016.486764</v>
-      </c>
-      <c r="H15" s="41">
-        <f>SUM(H11:H14)</f>
-        <v>6097.8852039999983</v>
+      <c r="A15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="28">
+        <v>45091</v>
+      </c>
+      <c r="C15" s="29">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E15" s="31">
+        <v>23050.94</v>
+      </c>
+      <c r="F15" s="30">
+        <v>4.84</v>
+      </c>
+      <c r="G15" s="31">
+        <v>24146.400000000001</v>
+      </c>
+      <c r="H15" s="32">
+        <f t="shared" si="1"/>
+        <v>1095.4600000000028</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="7"/>
@@ -7091,18 +7096,30 @@
       <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="43">
-        <f>H10+H15</f>
-        <v>76024.485203999997</v>
+      <c r="A16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="28">
+        <v>45093</v>
+      </c>
+      <c r="C16" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="30">
+        <v>7.65</v>
+      </c>
+      <c r="E16" s="31">
+        <v>76669.45</v>
+      </c>
+      <c r="F16" s="30">
+        <v>7.7</v>
+      </c>
+      <c r="G16" s="31">
+        <v>76829.45</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="7"/>
@@ -7111,18 +7128,31 @@
       <c r="M16" s="15"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32" t="s">
-        <v>36</v>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21.75">
+      <c r="A17" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="28">
+        <v>45093</v>
+      </c>
+      <c r="C17" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="30">
+        <v>7.65</v>
+      </c>
+      <c r="E17" s="31">
+        <v>76669.45</v>
+      </c>
+      <c r="F17" s="30">
+        <v>7.7</v>
+      </c>
+      <c r="G17" s="31">
+        <v>76829.45</v>
       </c>
       <c r="H17" s="32">
-        <v>230335.49</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="7"/>
@@ -7131,19 +7161,31 @@
       <c r="M17" s="15"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="34">
-        <f>H16+H17</f>
-        <v>306359.97520400002</v>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21.75">
+      <c r="A18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="28">
+        <v>45100</v>
+      </c>
+      <c r="C18" s="29">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E18" s="31">
+        <v>30667.77</v>
+      </c>
+      <c r="F18" s="30">
+        <v>10.7</v>
+      </c>
+      <c r="G18" s="31">
+        <v>32028.9</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="0"/>
+        <v>1361.130000000001</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="7"/>
@@ -7152,18 +7194,23 @@
       <c r="M18" s="15"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A19" s="26"/>
       <c r="B19" s="28"/>
       <c r="C19" s="29"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="32">
+        <f>SUM(E11:E18)</f>
+        <v>305976.21156000003</v>
+      </c>
       <c r="F19" s="30"/>
-      <c r="G19" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="35">
-        <v>437490</v>
+      <c r="G19" s="32">
+        <f>SUM(G11:G18)</f>
+        <v>314850.68676400004</v>
+      </c>
+      <c r="H19" s="41">
+        <f>SUM(H11:H18)</f>
+        <v>8874.4752040000021</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="7"/>
@@ -7172,7 +7219,7 @@
       <c r="M19" s="15"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A20" s="26"/>
       <c r="B20" s="28"/>
       <c r="C20" s="29"/>
@@ -7180,10 +7227,11 @@
       <c r="E20" s="32"/>
       <c r="F20" s="30"/>
       <c r="G20" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="35">
-        <v>50000</v>
+        <v>31</v>
+      </c>
+      <c r="H20" s="43">
+        <f>H10+H19</f>
+        <v>79007.475204000002</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="7"/>
@@ -7200,11 +7248,10 @@
       <c r="E21" s="32"/>
       <c r="F21" s="30"/>
       <c r="G21" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="41">
-        <f>H19+H20</f>
-        <v>487490</v>
+        <v>36</v>
+      </c>
+      <c r="H21" s="32">
+        <v>230335.49</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="7"/>
@@ -7213,19 +7260,19 @@
       <c r="M21" s="15"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10"/>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="46">
-        <f>H18-H21</f>
-        <v>-181130.02479599998</v>
+        <v>37</v>
+      </c>
+      <c r="H22" s="34">
+        <f>H20+H21</f>
+        <v>309342.96520400001</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="7"/>
@@ -7235,17 +7282,17 @@
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="38">
-        <v>112000</v>
+      <c r="A23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="35">
+        <v>437490</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="7"/>
@@ -7255,46 +7302,128 @@
       <c r="N23" s="6"/>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A24" s="6"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="39">
-        <f>H22+H23</f>
-        <v>-69130.024795999983</v>
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="35">
+        <v>50000</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" ht="13.9">
-      <c r="I25" s="7"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="41">
+        <f>H23+H24</f>
+        <v>487490</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.6" customHeight="1">
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="21.75">
+      <c r="A26" s="5"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="46">
+        <f>H22-H25</f>
+        <v>-178147.03479599999</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" ht="13.9">
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A27" s="5"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="38">
+        <v>112000</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" ht="13.9">
-      <c r="M28" s="7"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A28" s="6"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="39">
+        <f>H26+H27</f>
+        <v>-66147.034795999993</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" ht="13.9">
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="13.9">
+      <c r="I29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.6" customHeight="1">
       <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" ht="13.9">
+      <c r="K31" s="7"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:14" ht="13.9">
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="11:13" ht="13.9">
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="11:13" ht="13.9">
+      <c r="K34" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -7545,7 +7674,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A8" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="28">
         <v>44720</v>
@@ -7644,7 +7773,7 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A11" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="28">
         <v>44735</v>
@@ -7677,7 +7806,7 @@
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A12" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="28">
         <v>44735</v>
@@ -7710,7 +7839,7 @@
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A13" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="28">
         <v>44739</v>
@@ -7889,7 +8018,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="30"/>
       <c r="G20" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H20" s="35">
         <v>72560</v>
@@ -8125,7 +8254,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A4" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="28">
         <v>44746</v>
@@ -8158,7 +8287,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A5" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="28">
         <v>44764</v>
@@ -8191,7 +8320,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A6" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="28">
         <v>44767</v>
@@ -8224,7 +8353,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A7" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="28">
         <v>44767</v>
@@ -8358,7 +8487,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="35">
         <v>26960</v>
@@ -8546,7 +8675,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A2" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="28">
         <v>44799</v>
@@ -8578,7 +8707,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A3" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="28">
         <v>44799</v>
@@ -8629,7 +8758,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="28">
         <v>44788</v>
@@ -8662,7 +8791,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="28">
         <v>44796</v>
@@ -8796,7 +8925,7 @@
       <c r="E12" s="32"/>
       <c r="F12" s="30"/>
       <c r="G12" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="35">
         <v>53940</v>

--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5006" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AD08403-3EEC-460B-9080-A0F1B5AC05A0}"/>
+  <xr:revisionPtr revIDLastSave="5044" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B152C275-B527-405A-A4FD-16B865047A49}"/>
   <bookViews>
-    <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN23" sheetId="58" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="APR23" sheetId="61" r:id="rId4"/>
     <sheet name="MAY23" sheetId="62" r:id="rId5"/>
     <sheet name="JUN23" sheetId="63" r:id="rId6"/>
-    <sheet name="JUN22" sheetId="52" r:id="rId7"/>
+    <sheet name="JUL23" sheetId="64" r:id="rId7"/>
     <sheet name="JUL22" sheetId="44" r:id="rId8"/>
     <sheet name="AUG22 " sheetId="53" r:id="rId9"/>
     <sheet name="SEP22" sheetId="54" r:id="rId10"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -212,19 +212,13 @@
     <t>EA</t>
   </si>
   <si>
+    <t>BANPU</t>
+  </si>
+  <si>
     <t>June Exp</t>
   </si>
   <si>
-    <t>TOP</t>
-  </si>
-  <si>
-    <t>BDMS</t>
-  </si>
-  <si>
-    <t>GLOBAL</t>
-  </si>
-  <si>
-    <t>TTB</t>
+    <t>JuLY Exp</t>
   </si>
   <si>
     <t>TISCO</t>
@@ -233,13 +227,16 @@
     <t>SIS</t>
   </si>
   <si>
-    <t>JuLY Exp</t>
+    <t>GLOBAL</t>
   </si>
   <si>
     <t>PTTEP</t>
   </si>
   <si>
     <t>SCC</t>
+  </si>
+  <si>
+    <t>TOP</t>
   </si>
   <si>
     <t>Aug Exp</t>
@@ -249,9 +246,6 @@
   </si>
   <si>
     <t>TPIPL</t>
-  </si>
-  <si>
-    <t>BANPU</t>
   </si>
   <si>
     <t>Sep Exp</t>
@@ -1453,7 +1447,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A4" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="28">
         <v>44806</v>
@@ -2110,7 +2104,7 @@
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A25" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" s="28">
         <v>44809</v>
@@ -2176,7 +2170,7 @@
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A27" s="27" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B27" s="28">
         <v>44816</v>
@@ -2310,7 +2304,7 @@
       <c r="E33" s="32"/>
       <c r="F33" s="30"/>
       <c r="G33" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H33" s="35">
         <v>35345</v>
@@ -2549,7 +2543,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="28">
         <v>44840</v>
@@ -2782,7 +2776,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H13" s="35">
         <v>71130</v>
@@ -3116,7 +3110,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="28">
         <v>44872</v>
@@ -3149,7 +3143,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="28">
         <v>44873</v>
@@ -3182,7 +3176,7 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="28">
         <v>44880</v>
@@ -3215,7 +3209,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="28">
         <v>44886</v>
@@ -3248,7 +3242,7 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="28">
         <v>44887</v>
@@ -3382,7 +3376,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="30"/>
       <c r="G17" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H17" s="35">
         <v>37950</v>
@@ -3937,7 +3931,7 @@
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="28">
         <v>44918</v>
@@ -4203,7 +4197,7 @@
       <c r="E24" s="32"/>
       <c r="F24" s="30"/>
       <c r="G24" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H24" s="35">
         <v>29530</v>
@@ -6597,11 +6591,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37083A6-0AEB-499E-BA73-BD7B20354C2D}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -6953,7 +6947,7 @@
         <v>20953.307339999999</v>
       </c>
       <c r="H11" s="32">
-        <f t="shared" ref="H11:H18" si="0">G11-E11</f>
+        <f t="shared" ref="H11:H21" si="0">G11-E11</f>
         <v>909.00933999999688</v>
       </c>
       <c r="I11" s="11"/>
@@ -7161,31 +7155,31 @@
       <c r="M17" s="15"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="21.75">
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="26.25" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B18" s="28">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="C18" s="29">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="D18" s="30">
-        <v>10.199999999999999</v>
+        <v>53</v>
       </c>
       <c r="E18" s="31">
-        <v>30667.77</v>
+        <v>21246.95</v>
       </c>
       <c r="F18" s="30">
-        <v>10.7</v>
+        <v>55.75</v>
       </c>
       <c r="G18" s="31">
-        <v>32028.9</v>
+        <v>22250.61</v>
       </c>
       <c r="H18" s="32">
-        <f t="shared" si="0"/>
-        <v>1361.130000000001</v>
+        <f t="shared" ref="H18" si="2">G18-E18</f>
+        <v>1003.6599999999999</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="7"/>
@@ -7195,22 +7189,30 @@
       <c r="N18" s="6"/>
     </row>
     <row r="19" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32">
-        <f>SUM(E11:E18)</f>
-        <v>305976.21156000003</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32">
-        <f>SUM(G11:G18)</f>
-        <v>314850.68676400004</v>
-      </c>
-      <c r="H19" s="41">
-        <f>SUM(H11:H18)</f>
-        <v>8874.4752040000021</v>
+      <c r="A19" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="28">
+        <v>45106</v>
+      </c>
+      <c r="C19" s="29">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="30">
+        <v>10.6</v>
+      </c>
+      <c r="E19" s="31">
+        <v>21246.95</v>
+      </c>
+      <c r="F19" s="30">
+        <v>11.2</v>
+      </c>
+      <c r="G19" s="31">
+        <v>22350.38</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" ref="H19:H20" si="3">G19-E19</f>
+        <v>1103.4300000000003</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="7"/>
@@ -7220,18 +7222,30 @@
       <c r="N19" s="6"/>
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="43">
-        <f>H10+H19</f>
-        <v>79007.475204000002</v>
+      <c r="A20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="28">
+        <v>45100</v>
+      </c>
+      <c r="C20" s="29">
+        <v>3000</v>
+      </c>
+      <c r="D20" s="30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E20" s="31">
+        <v>30667.77</v>
+      </c>
+      <c r="F20" s="30">
+        <v>10.7</v>
+      </c>
+      <c r="G20" s="31">
+        <v>32028.9</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" si="3"/>
+        <v>1361.130000000001</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="7"/>
@@ -7240,18 +7254,30 @@
       <c r="M20" s="15"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32" t="s">
-        <v>36</v>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21.75">
+      <c r="A21" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="28">
+        <v>45107</v>
+      </c>
+      <c r="C21" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D21" s="30">
+        <v>11.5</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0</v>
       </c>
       <c r="H21" s="32">
-        <v>230335.49</v>
+        <v>-86544.88</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="7"/>
@@ -7260,19 +7286,23 @@
       <c r="M21" s="15"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A22" s="26"/>
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
       <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
+      <c r="E22" s="32">
+        <f>SUM(E11:E21)</f>
+        <v>348470.11156000005</v>
+      </c>
       <c r="F22" s="30"/>
-      <c r="G22" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="34">
-        <f>H20+H21</f>
-        <v>309342.96520400001</v>
+      <c r="G22" s="32">
+        <f>SUM(G11:G21)</f>
+        <v>359451.67676400003</v>
+      </c>
+      <c r="H22" s="41">
+        <f>SUM(H11:H21)</f>
+        <v>-75563.314796000006</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="7"/>
@@ -7281,7 +7311,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A23" s="26"/>
       <c r="B23" s="28"/>
       <c r="C23" s="29"/>
@@ -7289,10 +7319,11 @@
       <c r="E23" s="32"/>
       <c r="F23" s="30"/>
       <c r="G23" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="35">
-        <v>437490</v>
+        <v>31</v>
+      </c>
+      <c r="H23" s="43">
+        <f>H10+H22</f>
+        <v>-5430.314796000006</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="7"/>
@@ -7309,10 +7340,10 @@
       <c r="E24" s="32"/>
       <c r="F24" s="30"/>
       <c r="G24" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="35">
-        <v>50000</v>
+        <v>36</v>
+      </c>
+      <c r="H24" s="32">
+        <v>230335.49</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
@@ -7329,11 +7360,11 @@
       <c r="E25" s="32"/>
       <c r="F25" s="30"/>
       <c r="G25" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="41">
+        <v>37</v>
+      </c>
+      <c r="H25" s="34">
         <f>H23+H24</f>
-        <v>487490</v>
+        <v>224905.17520399997</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="7"/>
@@ -7342,19 +7373,18 @@
       <c r="M25" s="15"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A26" s="5"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="10"/>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="46">
-        <f>H22-H25</f>
-        <v>-178147.03479599999</v>
+        <v>16</v>
+      </c>
+      <c r="H26" s="35">
+        <v>437490</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="7"/>
@@ -7364,17 +7394,17 @@
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A27" s="5"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="38">
-        <v>112000</v>
+      <c r="A27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="35">
+        <v>43090</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="7"/>
@@ -7384,46 +7414,108 @@
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A28" s="6"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="39">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="41">
         <f>H26+H27</f>
-        <v>-66147.034795999993</v>
+        <v>480580</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" ht="13.9">
-      <c r="I29" s="7"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="21.75">
+      <c r="A29" s="5"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="46">
+        <f>H25-H28</f>
+        <v>-255674.82479600003</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.6" customHeight="1">
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A30" s="5"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="38">
+        <v>112000</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" ht="13.9">
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A31" s="6"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="39">
+        <f>H29+H30</f>
+        <v>-143674.82479600003</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="13.9">
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="11:13" ht="13.9">
-      <c r="M33" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="11:13" ht="15.6" customHeight="1">
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="11:13" ht="13.9">
       <c r="K34" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="11:13" ht="13.9">
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="11:13" ht="13.9">
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="11:13" ht="13.9">
+      <c r="K37" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -7434,30 +7526,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2313C6C8-D1DE-449B-AAEA-D0B5747110E6}">
-  <dimension ref="A1:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BDFB71-6C08-4D1D-BB1D-F3EEA757A22B}">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.5703125" style="6"/>
   </cols>
   <sheetData>
@@ -7486,316 +7578,221 @@
       <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="7"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A2" s="27" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="28">
-        <v>44718</v>
+        <v>44736</v>
       </c>
       <c r="C2" s="29">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="37">
-        <v>0.26</v>
+        <v>0.15559999999999999</v>
       </c>
       <c r="G2" s="31">
         <f>C2*F2</f>
-        <v>13000</v>
+        <v>6223.9999999999991</v>
       </c>
       <c r="H2" s="32">
-        <f>G2</f>
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="17"/>
+      <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="28">
-        <v>44720</v>
-      </c>
-      <c r="C3" s="29">
-        <v>110000</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="G3" s="31">
-        <f>C3*F3</f>
-        <v>25300</v>
-      </c>
-      <c r="H3" s="32">
-        <f>G3</f>
-        <v>25300</v>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
+        <f>SUM(H2:H2)</f>
+        <v>0</v>
       </c>
       <c r="I3" s="11"/>
-      <c r="J3" s="17"/>
+      <c r="J3" s="7"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A4" s="27" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B4" s="28">
-        <v>44727</v>
+        <v>45111</v>
       </c>
       <c r="C4" s="29">
-        <v>30000</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="37">
-        <v>0.1915</v>
+        <v>1800</v>
+      </c>
+      <c r="D4" s="30">
+        <v>17</v>
+      </c>
+      <c r="E4" s="31">
+        <v>30667.77</v>
+      </c>
+      <c r="F4" s="30">
+        <v>17.899999999999999</v>
       </c>
       <c r="G4" s="31">
-        <f>C4*F4</f>
-        <v>5745</v>
+        <v>32148.63</v>
       </c>
       <c r="H4" s="32">
-        <f>G4*0.9</f>
-        <v>5170.5</v>
+        <f>G4-E4</f>
+        <v>1480.8600000000006</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="17"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A5" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="28">
-        <v>44728</v>
-      </c>
-      <c r="C5" s="29">
-        <v>6000</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="G5" s="31">
-        <f>C5*F5</f>
-        <v>2400</v>
-      </c>
-      <c r="H5" s="32">
-        <f>G5*0.9</f>
-        <v>2160</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="17"/>
+    <row r="5" spans="1:14" ht="15.75">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32">
+        <f>SUM(E4:E4)</f>
+        <v>30667.77</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="32">
+        <f>SUM(G4:G4)</f>
+        <v>32148.63</v>
+      </c>
+      <c r="H5" s="44">
+        <f>SUM(H4:H4)</f>
+        <v>1480.8600000000006</v>
+      </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A6" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="28">
-        <v>44736</v>
-      </c>
-      <c r="C6" s="29">
-        <v>40000</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="G6" s="31">
-        <f>C6*F6</f>
-        <v>6223.9999999999991</v>
-      </c>
-      <c r="H6" s="32">
-        <f>G6*0.9</f>
-        <v>5601.5999999999995</v>
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="34">
+        <f>H3+H5</f>
+        <v>1480.8600000000006</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="17"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:14" ht="15.6">
+      <c r="A7" s="26"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="34">
-        <f>SUM(H2:H6)</f>
-        <v>51232.1</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="19"/>
+      <c r="G7" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="32">
+        <v>224905.17520399997</v>
+      </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A8" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="28">
-        <v>44720</v>
-      </c>
-      <c r="C8" s="29">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="30">
-        <v>57.5</v>
-      </c>
-      <c r="E8" s="31">
-        <v>172882.08</v>
-      </c>
-      <c r="F8" s="30">
-        <v>60.5</v>
-      </c>
-      <c r="G8" s="31">
-        <v>181097.99</v>
-      </c>
-      <c r="H8" s="32">
-        <f t="shared" ref="H8:H14" si="0">G8-E8</f>
-        <v>8215.9100000000035</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="34">
+        <f>H6+H7</f>
+        <v>226386.03520399996</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A9" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="28">
-        <v>44725</v>
-      </c>
-      <c r="C9" s="29">
-        <v>1500</v>
-      </c>
-      <c r="D9" s="30">
-        <v>21.8</v>
-      </c>
-      <c r="E9" s="31">
-        <v>32772.43</v>
-      </c>
-      <c r="F9" s="30">
-        <v>22.2</v>
-      </c>
-      <c r="G9" s="31">
-        <v>33226.239999999998</v>
-      </c>
-      <c r="H9" s="32">
-        <f t="shared" si="0"/>
-        <v>453.80999999999767</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="35">
+        <v>480580</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="28">
-        <v>44725</v>
-      </c>
-      <c r="C10" s="29">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="30">
-        <v>14.7</v>
-      </c>
-      <c r="E10" s="31">
-        <v>147325.59</v>
-      </c>
-      <c r="F10" s="30">
-        <v>13.5</v>
-      </c>
-      <c r="G10" s="31">
-        <v>134700.99</v>
-      </c>
-      <c r="H10" s="32">
-        <f t="shared" si="0"/>
-        <v>-12624.600000000006</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="35">
+        <v>50000</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A11" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="28">
-        <v>44735</v>
-      </c>
-      <c r="C11" s="29">
-        <v>4500</v>
-      </c>
-      <c r="D11" s="30">
-        <v>26</v>
-      </c>
-      <c r="E11" s="31">
-        <v>117259.14</v>
-      </c>
-      <c r="F11" s="30">
-        <v>24.8</v>
-      </c>
-      <c r="G11" s="31">
-        <v>111352.82</v>
-      </c>
-      <c r="H11" s="32">
-        <f t="shared" si="0"/>
-        <v>-5906.3199999999924</v>
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="41">
+        <f>H9+H10</f>
+        <v>530580</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
@@ -7804,31 +7801,19 @@
       <c r="M11" s="15"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A12" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="28">
-        <v>44735</v>
-      </c>
-      <c r="C12" s="29">
-        <v>4500</v>
-      </c>
-      <c r="D12" s="30">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E12" s="31">
-        <v>82983.399999999994</v>
-      </c>
-      <c r="F12" s="30">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G12" s="31">
-        <v>83514.61</v>
-      </c>
-      <c r="H12" s="32">
-        <f t="shared" si="0"/>
-        <v>531.2100000000064</v>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="46">
+        <f>H8-H11</f>
+        <v>-304193.96479600004</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
@@ -7838,30 +7823,17 @@
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A13" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="28">
-        <v>44739</v>
-      </c>
-      <c r="C13" s="29">
-        <v>100000</v>
-      </c>
-      <c r="D13" s="30">
-        <v>1.26</v>
-      </c>
-      <c r="E13" s="31">
-        <v>126279.08</v>
-      </c>
-      <c r="F13" s="30">
-        <v>1.25</v>
-      </c>
-      <c r="G13" s="31">
-        <v>124723.14</v>
-      </c>
-      <c r="H13" s="32">
-        <f t="shared" si="0"/>
-        <v>-1555.9400000000023</v>
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="38">
+        <v>112000</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="7"/>
@@ -7871,30 +7843,18 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="28">
-        <v>44741</v>
-      </c>
-      <c r="C14" s="29">
-        <v>5000</v>
-      </c>
-      <c r="D14" s="30">
-        <v>11.4</v>
-      </c>
-      <c r="E14" s="31">
-        <v>57126.25</v>
-      </c>
-      <c r="F14" s="30">
-        <v>11.7</v>
-      </c>
-      <c r="G14" s="31">
-        <v>58370.42</v>
-      </c>
-      <c r="H14" s="32">
-        <f t="shared" si="0"/>
-        <v>1244.1699999999983</v>
+      <c r="A14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="39">
+        <f>H12+H13</f>
+        <v>-192193.96479600004</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="7"/>
@@ -7903,236 +7863,27 @@
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A15" s="26"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="32">
-        <f>SUM(E8:E14)</f>
-        <v>736627.97</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32">
-        <f>SUM(G8:G14)</f>
-        <v>726986.21000000008</v>
-      </c>
-      <c r="H15" s="44">
-        <f>SUM(H8:H14)</f>
-        <v>-9641.7599999999948</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
+    <row r="15" spans="1:14" ht="13.9">
       <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A16" s="26"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="34">
-        <f>H7+H15</f>
-        <v>41590.340000000004</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A17" s="26"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="32">
-        <v>344208.35200000007</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A18" s="26"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="34">
-        <f>H16+H17</f>
-        <v>385798.6920000001</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" ht="13.9">
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13" ht="13.9">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" ht="13.9">
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="10"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A19" s="26"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="35">
-        <v>314880</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="35">
-        <v>72560</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="41">
-        <f>H19+H20</f>
-        <v>387440</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A22" s="5"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="46">
-        <f>H18-H21</f>
-        <v>-1641.3079999999027</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A23" s="5"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="38">
-        <v>112000</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A24" s="6"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H24" s="39">
-        <f>H22+H23</f>
-        <v>110358.6920000001</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="I25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.6" customHeight="1">
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="K27" s="7"/>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="K30" s="7"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -8147,7 +7898,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="D9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="H15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -8254,7 +8005,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A4" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="28">
         <v>44746</v>
@@ -8287,7 +8038,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A5" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="28">
         <v>44764</v>
@@ -8320,7 +8071,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A6" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="28">
         <v>44767</v>
@@ -8353,7 +8104,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A7" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="28">
         <v>44767</v>
@@ -8487,7 +8238,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H13" s="35">
         <v>26960</v>
@@ -8675,7 +8426,7 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A2" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="28">
         <v>44799</v>
@@ -8707,7 +8458,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A3" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="28">
         <v>44799</v>
@@ -8758,7 +8509,7 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="28">
         <v>44788</v>
@@ -8791,7 +8542,7 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B6" s="28">
         <v>44796</v>
@@ -8925,7 +8676,7 @@
       <c r="E12" s="32"/>
       <c r="F12" s="30"/>
       <c r="G12" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="35">
         <v>53940</v>

--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26707"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5044" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B152C275-B527-405A-A4FD-16B865047A49}"/>
+  <xr:revisionPtr revIDLastSave="5054" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD8093B-216A-46D7-A0C7-AED0EFF16F59}"/>
   <bookViews>
-    <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN23" sheetId="58" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -7527,11 +7527,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BDFB71-6C08-4D1D-BB1D-F3EEA757A22B}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -7668,50 +7668,62 @@
       <c r="M4" s="15"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
-      <c r="A5" s="26"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="32">
-        <f>SUM(E4:E4)</f>
-        <v>30667.77</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32">
-        <f>SUM(G4:G4)</f>
-        <v>32148.63</v>
-      </c>
-      <c r="H5" s="44">
-        <f>SUM(H4:H4)</f>
-        <v>1480.8600000000006</v>
-      </c>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75">
+      <c r="A5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="28">
+        <v>45120</v>
+      </c>
+      <c r="C5" s="29">
+        <v>900</v>
+      </c>
+      <c r="D5" s="30">
+        <v>50</v>
+      </c>
+      <c r="E5" s="31">
+        <v>45099.67</v>
+      </c>
+      <c r="F5" s="30">
+        <v>45</v>
+      </c>
+      <c r="G5" s="31">
+        <v>40410.29</v>
+      </c>
+      <c r="H5" s="32">
+        <f>G5-E5</f>
+        <v>-4689.3799999999974</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="26"/>
       <c r="B6" s="28"/>
       <c r="C6" s="29"/>
       <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
+      <c r="E6" s="32">
+        <f>SUM(E4:E5)</f>
+        <v>75767.44</v>
+      </c>
       <c r="F6" s="30"/>
-      <c r="G6" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="34">
-        <f>H3+H5</f>
-        <v>1480.8600000000006</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
+      <c r="G6" s="32">
+        <f t="shared" ref="G6:H6" si="0">SUM(G4:G5)</f>
+        <v>72558.92</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>-3208.5199999999968</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6">
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A7" s="26"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
@@ -7719,14 +7731,18 @@
       <c r="E7" s="32"/>
       <c r="F7" s="30"/>
       <c r="G7" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="32">
-        <v>224905.17520399997</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H7" s="34">
+        <f>H3+H6</f>
+        <v>-3208.5199999999968</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="15.6">
       <c r="A8" s="26"/>
@@ -7736,11 +7752,10 @@
       <c r="E8" s="32"/>
       <c r="F8" s="30"/>
       <c r="G8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="34">
-        <f>H6+H7</f>
-        <v>226386.03520399996</v>
+        <v>36</v>
+      </c>
+      <c r="H8" s="32">
+        <v>224905.17520399997</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="15"/>
@@ -7754,10 +7769,11 @@
       <c r="E9" s="32"/>
       <c r="F9" s="30"/>
       <c r="G9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="35">
-        <v>480580</v>
+        <v>37</v>
+      </c>
+      <c r="H9" s="34">
+        <f>H7+H8</f>
+        <v>221696.65520399998</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
@@ -7771,16 +7787,16 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H10" s="35">
-        <v>50000</v>
+        <v>480580</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="11" spans="1:14" ht="15.6">
       <c r="A11" s="26"/>
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
@@ -7788,32 +7804,28 @@
       <c r="E11" s="32"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="41">
-        <f>H9+H10</f>
-        <v>530580</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="H11" s="35">
+        <v>50000</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="10"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="46">
-        <f>H8-H11</f>
-        <v>-304193.96479600004</v>
+        <v>18</v>
+      </c>
+      <c r="H12" s="41">
+        <f>H10+H11</f>
+        <v>530580</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
@@ -7822,18 +7834,19 @@
       <c r="M12" s="15"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A13" s="5"/>
       <c r="B13" s="12"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="38">
-        <v>112000</v>
+      <c r="G13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="46">
+        <f>H9-H12</f>
+        <v>-308883.34479600005</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="7"/>
@@ -7843,18 +7856,17 @@
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="12"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="10"/>
       <c r="G14" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="39">
-        <f>H12+H13</f>
-        <v>-192193.96479600004</v>
+        <v>39</v>
+      </c>
+      <c r="H14" s="38">
+        <v>112000</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="7"/>
@@ -7863,27 +7875,48 @@
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="13.9">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="39">
+        <f>H13+H14</f>
+        <v>-196883.34479600005</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" spans="1:14" ht="13.9">
+      <c r="K16" s="7"/>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="3:13" ht="13.9">
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="3:13" ht="13.9">
-      <c r="C18" s="12"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="10"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="6"/>
       <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13" ht="13.9">
+      <c r="C19" s="12"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="10"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26707"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5054" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD8093B-216A-46D7-A0C7-AED0EFF16F59}"/>
+  <xr:revisionPtr revIDLastSave="5113" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C9A320-4DC3-42F8-8119-F8935DB5DF45}"/>
   <bookViews>
-    <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN23" sheetId="58" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <sheet name="MAY23" sheetId="62" r:id="rId5"/>
     <sheet name="JUN23" sheetId="63" r:id="rId6"/>
     <sheet name="JUL23" sheetId="64" r:id="rId7"/>
-    <sheet name="JUL22" sheetId="44" r:id="rId8"/>
-    <sheet name="AUG22 " sheetId="53" r:id="rId9"/>
-    <sheet name="SEP22" sheetId="54" r:id="rId10"/>
-    <sheet name="OCT22" sheetId="55" r:id="rId11"/>
-    <sheet name="NOV22" sheetId="56" r:id="rId12"/>
-    <sheet name="DEC22" sheetId="57" r:id="rId13"/>
+    <sheet name="AUG23" sheetId="65" r:id="rId8"/>
+    <sheet name="SEP22" sheetId="54" r:id="rId9"/>
+    <sheet name="OCT22" sheetId="55" r:id="rId10"/>
+    <sheet name="NOV22" sheetId="56" r:id="rId11"/>
+    <sheet name="DEC22" sheetId="57" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -218,25 +217,19 @@
     <t>June Exp</t>
   </si>
   <si>
-    <t>JuLY Exp</t>
+    <t>BBL</t>
   </si>
   <si>
-    <t>TISCO</t>
-  </si>
-  <si>
-    <t>SIS</t>
-  </si>
-  <si>
-    <t>GLOBAL</t>
-  </si>
-  <si>
-    <t>PTTEP</t>
+    <t>JuLY Exp</t>
   </si>
   <si>
     <t>SCC</t>
   </si>
   <si>
-    <t>TOP</t>
+    <t>TTB</t>
+  </si>
+  <si>
+    <t>ICHI</t>
   </si>
   <si>
     <t>Aug Exp</t>
@@ -1322,1115 +1315,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7FC27F-8D9C-4413-896B-92A14FAE71F8}">
-  <dimension ref="A1:N41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.9"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.5703125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A2" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="28">
-        <v>44806</v>
-      </c>
-      <c r="C2" s="29">
-        <v>5000</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G2" s="31">
-        <f t="shared" ref="G2:G22" si="0">C2*F2</f>
-        <v>1400.0000000000002</v>
-      </c>
-      <c r="H2" s="32">
-        <f>G2*0.9</f>
-        <v>1260.0000000000002</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A3" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="28">
-        <v>44806</v>
-      </c>
-      <c r="C3" s="29">
-        <v>15000</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="37">
-        <v>1.75</v>
-      </c>
-      <c r="G3" s="31">
-        <f t="shared" si="0"/>
-        <v>26250</v>
-      </c>
-      <c r="H3" s="32">
-        <f>G3*0.9</f>
-        <v>23625</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A4" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="28">
-        <v>44806</v>
-      </c>
-      <c r="C4" s="29">
-        <v>15000</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="37">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="31">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="H4" s="32">
-        <f>G4</f>
-        <v>1500</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A5" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="28">
-        <v>44806</v>
-      </c>
-      <c r="C5" s="29">
-        <v>30000</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="37">
-        <v>0.192</v>
-      </c>
-      <c r="G5" s="31">
-        <f t="shared" si="0"/>
-        <v>5760</v>
-      </c>
-      <c r="H5" s="32">
-        <f>G5*0.9</f>
-        <v>5184</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="28">
-        <v>44809</v>
-      </c>
-      <c r="C6" s="29">
-        <v>40000</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37">
-        <v>0.26</v>
-      </c>
-      <c r="G6" s="31">
-        <f t="shared" si="0"/>
-        <v>10400</v>
-      </c>
-      <c r="H6" s="32">
-        <f>G6</f>
-        <v>10400</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="28">
-        <v>44809</v>
-      </c>
-      <c r="C7" s="29">
-        <v>18000</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="37">
-        <v>0.18</v>
-      </c>
-      <c r="G7" s="31">
-        <f t="shared" si="0"/>
-        <v>3240</v>
-      </c>
-      <c r="H7" s="32">
-        <f>G7*0.9</f>
-        <v>2916</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A8" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="28">
-        <v>44810</v>
-      </c>
-      <c r="C8" s="29">
-        <v>60000</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="37">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G8" s="31">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="H8" s="32">
-        <f>G8*0.9</f>
-        <v>1890</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="28">
-        <v>44810</v>
-      </c>
-      <c r="C9" s="29">
-        <v>130000</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="37">
-        <v>0.23</v>
-      </c>
-      <c r="G9" s="31">
-        <f t="shared" si="0"/>
-        <v>29900</v>
-      </c>
-      <c r="H9" s="32">
-        <f>G9</f>
-        <v>29900</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A10" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="28">
-        <v>44810</v>
-      </c>
-      <c r="C10" s="29">
-        <v>7500</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="37">
-        <v>0.18</v>
-      </c>
-      <c r="G10" s="31">
-        <f t="shared" si="0"/>
-        <v>1350</v>
-      </c>
-      <c r="H10" s="32">
-        <f>G10*0.9</f>
-        <v>1215</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="28">
-        <v>44811</v>
-      </c>
-      <c r="C11" s="29">
-        <v>27000</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G11" s="31">
-        <f t="shared" si="0"/>
-        <v>1890.0000000000002</v>
-      </c>
-      <c r="H11" s="32">
-        <f>G11</f>
-        <v>1890.0000000000002</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A12" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="28">
-        <v>44812</v>
-      </c>
-      <c r="C12" s="29">
-        <v>22500</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="37">
-        <v>1</v>
-      </c>
-      <c r="G12" s="31">
-        <f t="shared" si="0"/>
-        <v>22500</v>
-      </c>
-      <c r="H12" s="32">
-        <v>20587.5</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A13" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="28">
-        <v>44813</v>
-      </c>
-      <c r="C13" s="29">
-        <v>30000</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G13" s="31">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="H13" s="32">
-        <f>G13*0.9</f>
-        <v>1890</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="28">
-        <v>44813</v>
-      </c>
-      <c r="C14" s="29">
-        <v>15000</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="37">
-        <v>1</v>
-      </c>
-      <c r="G14" s="31">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="H14" s="32">
-        <v>14085</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A15" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="28">
-        <v>44813</v>
-      </c>
-      <c r="C15" s="29">
-        <v>105000</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="37">
-        <v>0.12692000000000001</v>
-      </c>
-      <c r="G15" s="31">
-        <f t="shared" si="0"/>
-        <v>13326.6</v>
-      </c>
-      <c r="H15" s="32">
-        <v>12060.51</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A16" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="28">
-        <v>44813</v>
-      </c>
-      <c r="C16" s="29">
-        <v>48000</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="37">
-        <v>0.15</v>
-      </c>
-      <c r="G16" s="31">
-        <f t="shared" si="0"/>
-        <v>7200</v>
-      </c>
-      <c r="H16" s="32">
-        <f t="shared" ref="H16:H22" si="1">G16*0.9</f>
-        <v>6480</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A17" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="28">
-        <v>44817</v>
-      </c>
-      <c r="C17" s="29">
-        <v>45000</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="37">
-        <v>0.15</v>
-      </c>
-      <c r="G17" s="31">
-        <f t="shared" si="0"/>
-        <v>6750</v>
-      </c>
-      <c r="H17" s="32">
-        <f t="shared" si="1"/>
-        <v>6075</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A18" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="28">
-        <v>44818</v>
-      </c>
-      <c r="C18" s="29">
-        <v>21000</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" si="0"/>
-        <v>8400</v>
-      </c>
-      <c r="H18" s="32">
-        <f t="shared" si="1"/>
-        <v>7560</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A19" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="28">
-        <v>44818</v>
-      </c>
-      <c r="C19" s="29">
-        <v>10000</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="37">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="G19" s="31">
-        <f t="shared" si="0"/>
-        <v>2010.0000000000002</v>
-      </c>
-      <c r="H19" s="32">
-        <f t="shared" si="1"/>
-        <v>1809.0000000000002</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="28">
-        <v>44819</v>
-      </c>
-      <c r="C20" s="29">
-        <v>2400</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="37">
-        <v>0.4</v>
-      </c>
-      <c r="G20" s="31">
-        <f t="shared" si="0"/>
-        <v>960</v>
-      </c>
-      <c r="H20" s="32">
-        <f t="shared" si="1"/>
-        <v>864</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A21" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="28">
-        <v>44823</v>
-      </c>
-      <c r="C21" s="29">
-        <v>40000</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="37">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="G21" s="31">
-        <f t="shared" si="0"/>
-        <v>6223.9999999999991</v>
-      </c>
-      <c r="H21" s="32">
-        <f t="shared" si="1"/>
-        <v>5601.5999999999995</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A22" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="28">
-        <v>44825</v>
-      </c>
-      <c r="C22" s="29">
-        <v>12000</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="37">
-        <v>0.75</v>
-      </c>
-      <c r="G22" s="31">
-        <f t="shared" si="0"/>
-        <v>9000</v>
-      </c>
-      <c r="H22" s="32">
-        <f t="shared" si="1"/>
-        <v>8100</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="6"/>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="34">
-        <f>SUM(H2:H22)</f>
-        <v>164892.61000000002</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="6"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="28">
-        <v>44805</v>
-      </c>
-      <c r="C24" s="29">
-        <v>3000</v>
-      </c>
-      <c r="D24" s="30">
-        <v>18.5</v>
-      </c>
-      <c r="E24" s="31">
-        <v>55622.93</v>
-      </c>
-      <c r="F24" s="30">
-        <v>19</v>
-      </c>
-      <c r="G24" s="31">
-        <v>56873.75</v>
-      </c>
-      <c r="H24" s="32">
-        <f>G24-E24</f>
-        <v>1250.8199999999997</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="6"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="28">
-        <v>44809</v>
-      </c>
-      <c r="C25" s="29">
-        <v>60000</v>
-      </c>
-      <c r="D25" s="30">
-        <v>1.7</v>
-      </c>
-      <c r="E25" s="31">
-        <v>102225.92</v>
-      </c>
-      <c r="F25" s="30">
-        <v>1.71</v>
-      </c>
-      <c r="G25" s="31">
-        <v>102372.75</v>
-      </c>
-      <c r="H25" s="32">
-        <f>G25-E25</f>
-        <v>146.83000000000175</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="28">
-        <v>44813</v>
-      </c>
-      <c r="C26" s="29">
-        <v>10000</v>
-      </c>
-      <c r="D26" s="30">
-        <v>7.85</v>
-      </c>
-      <c r="E26" s="31">
-        <v>78673.88</v>
-      </c>
-      <c r="F26" s="30">
-        <v>8.25</v>
-      </c>
-      <c r="G26" s="31">
-        <v>82317.27</v>
-      </c>
-      <c r="H26" s="32">
-        <f>G26-E26</f>
-        <v>3643.3899999999994</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="28">
-        <v>44816</v>
-      </c>
-      <c r="C27" s="29">
-        <v>7500</v>
-      </c>
-      <c r="D27" s="30">
-        <v>14</v>
-      </c>
-      <c r="E27" s="31">
-        <v>105232.56</v>
-      </c>
-      <c r="F27" s="30">
-        <v>14.5</v>
-      </c>
-      <c r="G27" s="31">
-        <v>108509.13</v>
-      </c>
-      <c r="H27" s="32">
-        <f>G27-E27</f>
-        <v>3276.570000000007</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="32">
-        <f>SUM(E24:E27)</f>
-        <v>341755.29000000004</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="32">
-        <f>SUM(G24:G27)</f>
-        <v>350072.9</v>
-      </c>
-      <c r="H28" s="43">
-        <f>SUM(H24:H27)</f>
-        <v>8317.6100000000079</v>
-      </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="34">
-        <f>H23+H28</f>
-        <v>173210.22000000003</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="32">
-        <v>378717.68200000009</v>
-      </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="41">
-        <f>H29+H30</f>
-        <v>551927.90200000012</v>
-      </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="35">
-        <v>468340</v>
-      </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="35">
-        <v>35345</v>
-      </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="41">
-        <f>H32+H33</f>
-        <v>503685</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="45">
-        <f>H31-H34</f>
-        <v>48242.902000000118</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="38">
-        <v>112000</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="42">
-        <f>H35+H36</f>
-        <v>160242.90200000012</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="K38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="C41" s="12"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="10"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N22">
-    <sortCondition ref="B2:B22"/>
-    <sortCondition ref="A2:A22"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB73B3FB-8409-48F5-A2B7-3BA9D395158E}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -2543,7 +1427,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="28">
         <v>44840</v>
@@ -2776,7 +1660,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H13" s="35">
         <v>71130</v>
@@ -2898,7 +1782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C98757-5F3D-4FA1-98E2-779A87752594}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -3110,7 +1994,7 @@
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="28">
         <v>44872</v>
@@ -3143,7 +2027,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="28">
         <v>44873</v>
@@ -3176,7 +2060,7 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="28">
         <v>44880</v>
@@ -3209,7 +2093,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="28">
         <v>44886</v>
@@ -3242,7 +2126,7 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="28">
         <v>44887</v>
@@ -3376,7 +2260,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="30"/>
       <c r="G17" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H17" s="35">
         <v>37950</v>
@@ -3498,7 +2382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BBD29C-D904-43CE-A7C2-0CB7DA792816}">
   <dimension ref="A1:N32"/>
   <sheetViews>
@@ -3931,7 +2815,7 @@
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="28">
         <v>44918</v>
@@ -4197,7 +3081,7 @@
       <c r="E24" s="32"/>
       <c r="F24" s="30"/>
       <c r="G24" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H24" s="35">
         <v>29530</v>
@@ -7527,11 +6411,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BDFB71-6C08-4D1D-BB1D-F3EEA757A22B}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6:H6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -7701,50 +6585,62 @@
       <c r="M5" s="15"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="26"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32">
-        <f>SUM(E4:E5)</f>
-        <v>75767.44</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32">
-        <f t="shared" ref="G6:H6" si="0">SUM(G4:G5)</f>
-        <v>72558.92</v>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75">
+      <c r="A6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="28">
+        <v>45128</v>
+      </c>
+      <c r="C6" s="29">
+        <v>400</v>
+      </c>
+      <c r="D6" s="30">
+        <v>155</v>
+      </c>
+      <c r="E6" s="31">
+        <v>62137.32</v>
+      </c>
+      <c r="F6" s="30">
+        <v>167</v>
+      </c>
+      <c r="G6" s="31">
+        <v>66652.039999999994</v>
       </c>
       <c r="H6" s="32">
-        <f t="shared" si="0"/>
-        <v>-3208.5199999999968</v>
-      </c>
+        <f>G6-E6</f>
+        <v>4514.7199999999939</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="26"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29"/>
       <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
+      <c r="E7" s="32">
+        <f>SUM(E4:E6)</f>
+        <v>137904.76</v>
+      </c>
       <c r="F7" s="30"/>
-      <c r="G7" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="34">
-        <f>H3+H6</f>
-        <v>-3208.5199999999968</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
+      <c r="G7" s="32">
+        <f t="shared" ref="G7:H7" si="0">SUM(G4:G6)</f>
+        <v>139210.96</v>
+      </c>
+      <c r="H7" s="32">
+        <f t="shared" si="0"/>
+        <v>1306.1999999999971</v>
+      </c>
       <c r="K7" s="7"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6">
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A8" s="26"/>
       <c r="B8" s="28"/>
       <c r="C8" s="29"/>
@@ -7752,14 +6648,18 @@
       <c r="E8" s="32"/>
       <c r="F8" s="30"/>
       <c r="G8" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="32">
-        <v>224905.17520399997</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H8" s="34">
+        <f>H3+H7</f>
+        <v>1306.1999999999971</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14" ht="15.6">
       <c r="A9" s="26"/>
@@ -7769,11 +6669,10 @@
       <c r="E9" s="32"/>
       <c r="F9" s="30"/>
       <c r="G9" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="34">
-        <f>H7+H8</f>
-        <v>221696.65520399998</v>
+        <v>36</v>
+      </c>
+      <c r="H9" s="32">
+        <v>224905.17520399997</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
@@ -7787,10 +6686,11 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="35">
-        <v>480580</v>
+        <v>37</v>
+      </c>
+      <c r="H10" s="34">
+        <f>H8+H9</f>
+        <v>226211.37520399998</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="15"/>
@@ -7804,16 +6704,16 @@
       <c r="E11" s="32"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H11" s="35">
-        <v>50000</v>
+        <v>480580</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="12" spans="1:14" ht="15.6">
       <c r="A12" s="26"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -7821,32 +6721,28 @@
       <c r="E12" s="32"/>
       <c r="F12" s="30"/>
       <c r="G12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="41">
-        <f>H10+H11</f>
-        <v>530580</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="H12" s="35">
+        <v>50000</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="10"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="46">
-        <f>H9-H12</f>
-        <v>-308883.34479600005</v>
+        <v>18</v>
+      </c>
+      <c r="H13" s="41">
+        <f>H11+H12</f>
+        <v>530580</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="7"/>
@@ -7855,18 +6751,19 @@
       <c r="M13" s="15"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A14" s="5"/>
       <c r="B14" s="12"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="7"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="38">
-        <v>112000</v>
+      <c r="G14" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="46">
+        <f>H10-H13</f>
+        <v>-304368.62479600002</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="7"/>
@@ -7876,18 +6773,17 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="12"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="39">
-        <f>H13+H14</f>
-        <v>-196883.34479600005</v>
+        <v>39</v>
+      </c>
+      <c r="H15" s="38">
+        <v>112000</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="7"/>
@@ -7896,27 +6792,48 @@
       <c r="M15" s="15"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="13.9">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A16" s="6"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="39">
+        <f>H14+H15</f>
+        <v>-192368.62479600002</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="3:13" ht="13.9">
+      <c r="K17" s="7"/>
       <c r="M17" s="7"/>
     </row>
     <row r="18" spans="3:13" ht="13.9">
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="3:13" ht="13.9">
-      <c r="C19" s="12"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="10"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="6"/>
       <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13" ht="13.9">
+      <c r="C20" s="12"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="10"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -7927,486 +6844,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0B3A52-20AE-4532-93E1-8BE977BC9CF2}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H15" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.9"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.5703125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="28">
-        <v>44736</v>
-      </c>
-      <c r="C2" s="29">
-        <v>40000</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="37">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="G2" s="31">
-        <f>C2*F2</f>
-        <v>6223.9999999999991</v>
-      </c>
-      <c r="H2" s="32">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
-        <f>SUM(H2:H2)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="28">
-        <v>44746</v>
-      </c>
-      <c r="C4" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="30">
-        <v>97.5</v>
-      </c>
-      <c r="E4" s="31">
-        <v>97715.96</v>
-      </c>
-      <c r="F4" s="30">
-        <v>88.5</v>
-      </c>
-      <c r="G4" s="31">
-        <v>88303.98</v>
-      </c>
-      <c r="H4" s="32">
-        <f>G4-E4</f>
-        <v>-9411.9800000000105</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A5" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="28">
-        <v>44764</v>
-      </c>
-      <c r="C5" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="30">
-        <v>97.5</v>
-      </c>
-      <c r="E5" s="31">
-        <v>97715.96</v>
-      </c>
-      <c r="F5" s="30">
-        <v>88.5</v>
-      </c>
-      <c r="G5" s="31">
-        <v>88303.98</v>
-      </c>
-      <c r="H5" s="32">
-        <f>G5-E5</f>
-        <v>-9411.9800000000105</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A6" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="28">
-        <v>44767</v>
-      </c>
-      <c r="C6" s="29">
-        <v>3600</v>
-      </c>
-      <c r="D6" s="30">
-        <v>28.5</v>
-      </c>
-      <c r="E6" s="31">
-        <v>102827.25</v>
-      </c>
-      <c r="F6" s="30">
-        <v>28.75</v>
-      </c>
-      <c r="G6" s="31">
-        <v>103270.75</v>
-      </c>
-      <c r="H6" s="32">
-        <f>G6-E6</f>
-        <v>443.5</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A7" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="28">
-        <v>44767</v>
-      </c>
-      <c r="C7" s="29">
-        <v>4500</v>
-      </c>
-      <c r="D7" s="30">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E7" s="31">
-        <v>82983.399999999994</v>
-      </c>
-      <c r="F7" s="30">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G7" s="31">
-        <v>83514.61</v>
-      </c>
-      <c r="H7" s="32">
-        <f>G7-E7</f>
-        <v>531.2100000000064</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32">
-        <f>SUM(E4:E7)</f>
-        <v>381242.57000000007</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32">
-        <f>SUM(G4:G7)</f>
-        <v>363393.31999999995</v>
-      </c>
-      <c r="H8" s="44">
-        <f>SUM(H4:H7)</f>
-        <v>-17849.250000000015</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="34">
-        <f>H3+H8</f>
-        <v>-17849.250000000015</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="32">
-        <v>385798.6920000001</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.6">
-      <c r="A11" s="26"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="34">
-        <f>H9+H10</f>
-        <v>367949.4420000001</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6">
-      <c r="A12" s="26"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="35">
-        <v>387440</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6">
-      <c r="A13" s="26"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="35">
-        <v>26960</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A14" s="26"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="41">
-        <f>H12+H13</f>
-        <v>414400</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75">
-      <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="46">
-        <f>H11-H14</f>
-        <v>-46450.557999999903</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="38">
-        <v>112000</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="39">
-        <f>H15+H16</f>
-        <v>65549.442000000097</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="K18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="C21" s="12"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="10"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M17">
-    <sortCondition descending="1" ref="J2:J17"/>
-    <sortCondition ref="A2:A17"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F5150-6BB5-4D89-BC93-31EBFDA0DB76}">
-  <dimension ref="A1:N20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="18" customWidth="1"/>
@@ -8459,10 +6905,10 @@
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
       <c r="A2" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="28">
-        <v>44799</v>
+        <v>45163</v>
       </c>
       <c r="C2" s="29">
         <v>600</v>
@@ -8472,15 +6918,15 @@
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="37">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="G2" s="31">
         <f>C2*F2</f>
-        <v>2550</v>
+        <v>1500</v>
       </c>
       <c r="H2" s="32">
         <f>G2*0.9</f>
-        <v>2295</v>
+        <v>1350</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="7"/>
@@ -8489,30 +6935,17 @@
       <c r="M2" s="15"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A3" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="28">
-        <v>44799</v>
-      </c>
-      <c r="C3" s="29">
-        <v>900</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>21</v>
-      </c>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="31"/>
-      <c r="F3" s="37">
-        <v>6</v>
-      </c>
-      <c r="G3" s="31">
-        <f>C3*F3</f>
-        <v>5400</v>
-      </c>
-      <c r="H3" s="32">
-        <f>G3*0.9</f>
-        <v>4860</v>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="41">
+        <f>SUM(H2:H2)</f>
+        <v>1350</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="7"/>
@@ -8522,16 +6955,30 @@
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="41">
-        <f>SUM(H2:H3)</f>
-        <v>7155</v>
+      <c r="A4" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="28">
+        <v>45153</v>
+      </c>
+      <c r="C4" s="29">
+        <v>3600</v>
+      </c>
+      <c r="D4" s="30">
+        <v>17</v>
+      </c>
+      <c r="E4" s="31">
+        <v>61335.55</v>
+      </c>
+      <c r="F4" s="30">
+        <v>18.2</v>
+      </c>
+      <c r="G4" s="31">
+        <v>65374.879999999997</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4-E4</f>
+        <v>4039.3299999999945</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="7"/>
@@ -8542,29 +6989,29 @@
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B5" s="28">
-        <v>44788</v>
+        <v>45153</v>
       </c>
       <c r="C5" s="29">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="D5" s="30">
-        <v>155</v>
+        <v>39.75</v>
       </c>
       <c r="E5" s="31">
-        <v>93205.99</v>
+        <v>71708.479999999996</v>
       </c>
       <c r="F5" s="30">
-        <v>155.5</v>
+        <v>43.5</v>
       </c>
       <c r="G5" s="31">
-        <v>93093.35</v>
+        <v>78126.570000000007</v>
       </c>
       <c r="H5" s="32">
         <f>G5-E5</f>
-        <v>-112.63999999999942</v>
+        <v>6418.0900000000111</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="7"/>
@@ -8575,29 +7022,29 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="28">
-        <v>44796</v>
+        <v>45154</v>
       </c>
       <c r="C6" s="29">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="D6" s="30">
-        <v>57.5</v>
+        <v>1.64</v>
       </c>
       <c r="E6" s="31">
-        <v>172882.08</v>
+        <v>24654.48</v>
       </c>
       <c r="F6" s="30">
-        <v>59</v>
+        <v>1.76</v>
       </c>
       <c r="G6" s="31">
-        <v>176607.96</v>
+        <v>26341.52</v>
       </c>
       <c r="H6" s="32">
         <f>G6-E6</f>
-        <v>3725.8800000000047</v>
+        <v>1687.0400000000009</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="7"/>
@@ -8606,41 +7053,64 @@
       <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32">
-        <f>SUM(E5:E6)</f>
-        <v>266088.07</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32">
-        <f>SUM(G5:G6)</f>
-        <v>269701.31</v>
-      </c>
-      <c r="H7" s="44">
-        <f>SUM(H5:H6)</f>
-        <v>3613.2400000000052</v>
-      </c>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45134</v>
+      </c>
+      <c r="C7" s="29">
+        <v>100</v>
+      </c>
+      <c r="D7" s="30">
+        <v>14.3</v>
+      </c>
+      <c r="E7" s="31">
+        <v>1433.17</v>
+      </c>
+      <c r="F7" s="30">
+        <v>15.1</v>
+      </c>
+      <c r="G7" s="31">
+        <v>1506.65</v>
+      </c>
+      <c r="H7" s="32">
+        <f>G7-E7</f>
+        <v>73.480000000000018</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="41">
-        <f>H4+H7</f>
-        <v>10768.240000000005</v>
+      <c r="A8" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45155</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1400</v>
+      </c>
+      <c r="D8" s="30">
+        <v>14.3</v>
+      </c>
+      <c r="E8" s="31">
+        <v>20064.34</v>
+      </c>
+      <c r="F8" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="G8" s="31">
+        <v>22210.69</v>
+      </c>
+      <c r="H8" s="32">
+        <f>G8-E8</f>
+        <v>2146.3499999999985</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="7"/>
@@ -8654,19 +7124,24 @@
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
+      <c r="E9" s="32">
+        <f>SUM(E4:E8)</f>
+        <v>179196.02000000002</v>
+      </c>
       <c r="F9" s="30"/>
-      <c r="G9" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="32">
-        <v>367949.4420000001</v>
+      <c r="G9" s="32">
+        <f>SUM(G4:G8)</f>
+        <v>193560.31</v>
+      </c>
+      <c r="H9" s="44">
+        <f>SUM(H4:H8)</f>
+        <v>14364.290000000005</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:14" ht="21.75" customHeight="1">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="28"/>
       <c r="C10" s="29"/>
@@ -8674,15 +7149,18 @@
       <c r="E10" s="32"/>
       <c r="F10" s="30"/>
       <c r="G10" s="32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H10" s="41">
-        <f>H8+H9</f>
-        <v>378717.68200000009</v>
-      </c>
+        <f>H3+H9</f>
+        <v>15714.290000000005</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" spans="1:14" ht="21.75" customHeight="1">
       <c r="A11" s="26"/>
@@ -8692,10 +7170,10 @@
       <c r="E11" s="32"/>
       <c r="F11" s="30"/>
       <c r="G11" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="35">
-        <v>414400</v>
+        <v>36</v>
+      </c>
+      <c r="H11" s="32">
+        <v>226211.37520399998</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="15"/>
@@ -8709,16 +7187,17 @@
       <c r="E12" s="32"/>
       <c r="F12" s="30"/>
       <c r="G12" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="35">
-        <v>53940</v>
+        <v>37</v>
+      </c>
+      <c r="H12" s="41">
+        <f>H10+H11</f>
+        <v>241925.66520399999</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="13" spans="1:14" ht="21.75" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
@@ -8726,11 +7205,580 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="35">
+        <v>530580</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="35">
+        <v>200000</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="41">
-        <f>H11+H12</f>
-        <v>468340</v>
+      <c r="H15" s="41">
+        <f>H13+H14</f>
+        <v>730580</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="47">
+        <f>H12-H15</f>
+        <v>-488654.33479600004</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="38">
+        <v>112000</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="42">
+        <f>H16+H17</f>
+        <v>-376654.33479600004</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="13.9">
+      <c r="K19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" ht="13.9">
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" ht="13.9">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" ht="13.9">
+      <c r="C22" s="12"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="10"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7FC27F-8D9C-4413-896B-92A14FAE71F8}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="H31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="28">
+        <v>44806</v>
+      </c>
+      <c r="C2" s="29">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G22" si="0">C2*F2</f>
+        <v>1400.0000000000002</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2*0.9</f>
+        <v>1260.0000000000002</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="28">
+        <v>44806</v>
+      </c>
+      <c r="C3" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37">
+        <v>1.75</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>26250</v>
+      </c>
+      <c r="H3" s="32">
+        <f>G3*0.9</f>
+        <v>23625</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="28">
+        <v>44806</v>
+      </c>
+      <c r="C4" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4</f>
+        <v>1500</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="28">
+        <v>44806</v>
+      </c>
+      <c r="C5" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="37">
+        <v>0.192</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>5760</v>
+      </c>
+      <c r="H5" s="32">
+        <f>G5*0.9</f>
+        <v>5184</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="28">
+        <v>44809</v>
+      </c>
+      <c r="C6" s="29">
+        <v>40000</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>10400</v>
+      </c>
+      <c r="H6" s="32">
+        <f>G6</f>
+        <v>10400</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="28">
+        <v>44809</v>
+      </c>
+      <c r="C7" s="29">
+        <v>18000</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>3240</v>
+      </c>
+      <c r="H7" s="32">
+        <f>G7*0.9</f>
+        <v>2916</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="28">
+        <v>44810</v>
+      </c>
+      <c r="C8" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="37">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="H8" s="32">
+        <f>G8*0.9</f>
+        <v>1890</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="28">
+        <v>44810</v>
+      </c>
+      <c r="C9" s="29">
+        <v>130000</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>29900</v>
+      </c>
+      <c r="H9" s="32">
+        <f>G9</f>
+        <v>29900</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="28">
+        <v>44810</v>
+      </c>
+      <c r="C10" s="29">
+        <v>7500</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="H10" s="32">
+        <f>G10*0.9</f>
+        <v>1215</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="28">
+        <v>44811</v>
+      </c>
+      <c r="C11" s="29">
+        <v>27000</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="H11" s="32">
+        <f>G11</f>
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="28">
+        <v>44812</v>
+      </c>
+      <c r="C12" s="29">
+        <v>22500</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="H12" s="32">
+        <v>20587.5</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C13" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="H13" s="32">
+        <f>G13*0.9</f>
+        <v>1890</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="7"/>
@@ -8739,19 +7787,29 @@
       <c r="M13" s="15"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="47">
-        <f>H10-H13</f>
-        <v>-89622.317999999912</v>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C14" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="37">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H14" s="32">
+        <v>14085</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="7"/>
@@ -8760,18 +7818,29 @@
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="38">
-        <v>112000</v>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C15" s="29">
+        <v>105000</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="37">
+        <v>0.12692000000000001</v>
+      </c>
+      <c r="G15" s="31">
+        <f t="shared" si="0"/>
+        <v>13326.6</v>
+      </c>
+      <c r="H15" s="32">
+        <v>12060.51</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="7"/>
@@ -8780,19 +7849,30 @@
       <c r="M15" s="15"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="42">
-        <f>H14+H15</f>
-        <v>22377.682000000088</v>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C16" s="29">
+        <v>48000</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" ref="H16:H22" si="1">G16*0.9</f>
+        <v>6480</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="7"/>
@@ -8801,30 +7881,572 @@
       <c r="M16" s="15"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="28">
+        <v>44817</v>
+      </c>
+      <c r="C17" s="29">
+        <v>45000</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="1"/>
+        <v>6075</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="12"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="10"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="11"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A18" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="28">
+        <v>44818</v>
+      </c>
+      <c r="C18" s="29">
+        <v>21000</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="1"/>
+        <v>7560</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="28">
+        <v>44818</v>
+      </c>
+      <c r="C19" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="37">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="0"/>
+        <v>2010.0000000000002</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" si="1"/>
+        <v>1809.0000000000002</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="28">
+        <v>44819</v>
+      </c>
+      <c r="C20" s="29">
+        <v>2400</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" si="1"/>
+        <v>864</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A21" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="28">
+        <v>44823</v>
+      </c>
+      <c r="C21" s="29">
+        <v>40000</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="37">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="0"/>
+        <v>6223.9999999999991</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" si="1"/>
+        <v>5601.5999999999995</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="28">
+        <v>44825</v>
+      </c>
+      <c r="C22" s="29">
+        <v>12000</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="H22" s="32">
+        <f t="shared" si="1"/>
+        <v>8100</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="34">
+        <f>SUM(H2:H22)</f>
+        <v>164892.61000000002</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="28">
+        <v>44805</v>
+      </c>
+      <c r="C24" s="29">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="30">
+        <v>18.5</v>
+      </c>
+      <c r="E24" s="31">
+        <v>55622.93</v>
+      </c>
+      <c r="F24" s="30">
+        <v>19</v>
+      </c>
+      <c r="G24" s="31">
+        <v>56873.75</v>
+      </c>
+      <c r="H24" s="32">
+        <f>G24-E24</f>
+        <v>1250.8199999999997</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A25" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="28">
+        <v>44809</v>
+      </c>
+      <c r="C25" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D25" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="E25" s="31">
+        <v>102225.92</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1.71</v>
+      </c>
+      <c r="G25" s="31">
+        <v>102372.75</v>
+      </c>
+      <c r="H25" s="32">
+        <f>G25-E25</f>
+        <v>146.83000000000175</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A26" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C26" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="30">
+        <v>7.85</v>
+      </c>
+      <c r="E26" s="31">
+        <v>78673.88</v>
+      </c>
+      <c r="F26" s="30">
+        <v>8.25</v>
+      </c>
+      <c r="G26" s="31">
+        <v>82317.27</v>
+      </c>
+      <c r="H26" s="32">
+        <f>G26-E26</f>
+        <v>3643.3899999999994</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="28">
+        <v>44816</v>
+      </c>
+      <c r="C27" s="29">
+        <v>7500</v>
+      </c>
+      <c r="D27" s="30">
+        <v>14</v>
+      </c>
+      <c r="E27" s="31">
+        <v>105232.56</v>
+      </c>
+      <c r="F27" s="30">
+        <v>14.5</v>
+      </c>
+      <c r="G27" s="31">
+        <v>108509.13</v>
+      </c>
+      <c r="H27" s="32">
+        <f>G27-E27</f>
+        <v>3276.570000000007</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="32">
+        <f>SUM(E24:E27)</f>
+        <v>341755.29000000004</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32">
+        <f>SUM(G24:G27)</f>
+        <v>350072.9</v>
+      </c>
+      <c r="H28" s="43">
+        <f>SUM(H24:H27)</f>
+        <v>8317.6100000000079</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="34">
+        <f>H23+H28</f>
+        <v>173210.22000000003</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="32">
+        <v>378717.68200000009</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="41">
+        <f>H29+H30</f>
+        <v>551927.90200000012</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="35">
+        <v>468340</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A33" s="26"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="35">
+        <v>35345</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="41">
+        <f>H32+H33</f>
+        <v>503685</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="45">
+        <f>H31-H34</f>
+        <v>48242.902000000118</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="38">
+        <v>112000</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="42">
+        <f>H35+H36</f>
+        <v>160242.90200000012</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="K38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="C41" s="12"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="10"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N22">
+    <sortCondition ref="B2:B22"/>
+    <sortCondition ref="A2:A22"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>

--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5113" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25C9A320-4DC3-42F8-8119-F8935DB5DF45}"/>
+  <xr:revisionPtr revIDLastSave="5131" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9895D6C-37E7-42B4-A9E7-B4045B8D4707}"/>
   <bookViews>
     <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -6845,11 +6845,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0B3A52-20AE-4532-93E1-8BE977BC9CF2}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -7119,41 +7119,64 @@
       <c r="M8" s="15"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="32">
-        <f>SUM(E4:E8)</f>
-        <v>179196.02000000002</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32">
-        <f>SUM(G4:G8)</f>
-        <v>193560.31</v>
-      </c>
-      <c r="H9" s="44">
-        <f>SUM(H4:H8)</f>
-        <v>14364.290000000005</v>
-      </c>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="28">
+        <v>45169</v>
+      </c>
+      <c r="C9" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="30">
+        <v>10.5</v>
+      </c>
+      <c r="E9" s="31">
+        <v>105232.56</v>
+      </c>
+      <c r="F9" s="30">
+        <v>10.6</v>
+      </c>
+      <c r="G9" s="31">
+        <v>105765.22</v>
+      </c>
+      <c r="H9" s="32">
+        <f>G9-E9</f>
+        <v>532.66000000000349</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="41">
-        <f>H3+H9</f>
-        <v>15714.290000000005</v>
+      <c r="A10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45169</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1200</v>
+      </c>
+      <c r="D10" s="30">
+        <v>23.4</v>
+      </c>
+      <c r="E10" s="31">
+        <v>28142.2</v>
+      </c>
+      <c r="F10" s="30">
+        <v>24.6</v>
+      </c>
+      <c r="G10" s="31">
+        <v>29454.61</v>
+      </c>
+      <c r="H10" s="32">
+        <f>G10-E10</f>
+        <v>1312.4099999999999</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="7"/>
@@ -7167,19 +7190,24 @@
       <c r="B11" s="28"/>
       <c r="C11" s="29"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="32">
+        <f>SUM(E4:E10)</f>
+        <v>312570.78000000003</v>
+      </c>
       <c r="F11" s="30"/>
-      <c r="G11" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="32">
-        <v>226211.37520399998</v>
+      <c r="G11" s="32">
+        <f>SUM(G4:G10)</f>
+        <v>328780.14</v>
+      </c>
+      <c r="H11" s="44">
+        <f>SUM(H4:H10)</f>
+        <v>16209.360000000008</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:14" ht="21.75" customHeight="1">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29"/>
@@ -7187,15 +7215,18 @@
       <c r="E12" s="32"/>
       <c r="F12" s="30"/>
       <c r="G12" s="32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H12" s="41">
-        <f>H10+H11</f>
-        <v>241925.66520399999</v>
-      </c>
+        <f>H3+H11</f>
+        <v>17559.360000000008</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1">
       <c r="A13" s="26"/>
@@ -7205,10 +7236,10 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="35">
-        <v>530580</v>
+        <v>36</v>
+      </c>
+      <c r="H13" s="32">
+        <v>226211.37520399998</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="15"/>
@@ -7222,16 +7253,17 @@
       <c r="E14" s="32"/>
       <c r="F14" s="30"/>
       <c r="G14" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="35">
-        <v>200000</v>
+        <v>37</v>
+      </c>
+      <c r="H14" s="41">
+        <f>H12+H13</f>
+        <v>243770.735204</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="15" spans="1:14" ht="21.75" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
@@ -7239,52 +7271,45 @@
       <c r="E15" s="32"/>
       <c r="F15" s="30"/>
       <c r="G15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="41">
-        <f>H13+H14</f>
-        <v>730580</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="H15" s="35">
+        <v>530580</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
+    </row>
+    <row r="16" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="47">
-        <f>H12-H15</f>
-        <v>-488654.33479600004</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="H16" s="35">
+        <v>323210</v>
+      </c>
       <c r="K16" s="7"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="38">
-        <v>112000</v>
+      <c r="A17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="41">
+        <f>H15+H16</f>
+        <v>853790</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="7"/>
@@ -7294,18 +7319,18 @@
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="12"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="42">
-        <f>H16+H17</f>
-        <v>-376654.33479600004</v>
+      <c r="G18" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="47">
+        <f>H14-H17</f>
+        <v>-610019.26479599997</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="7"/>
@@ -7314,27 +7339,68 @@
       <c r="M18" s="15"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="13.9">
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="38">
+        <v>112000</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" ht="13.9">
-      <c r="M20" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="42">
+        <f>H18+H19</f>
+        <v>-498019.26479599997</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" spans="1:14" ht="13.9">
+      <c r="K21" s="7"/>
       <c r="M21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="13.9">
-      <c r="C22" s="12"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="10"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="6"/>
       <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:14" ht="13.9">
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:14" ht="13.9">
+      <c r="C24" s="12"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="10"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/Excel/03-PNL.xlsx
+++ b/Excel/03-PNL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5131" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9895D6C-37E7-42B4-A9E7-B4045B8D4707}"/>
+  <xr:revisionPtr revIDLastSave="5262" documentId="8_{B00F7D7D-2236-4C8B-840E-2CD3F92C0379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EF2BD27-4034-4F32-9D6C-A0BB02C7FA54}"/>
   <bookViews>
-    <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8076" yWindow="1416" windowWidth="13908" windowHeight="9516" tabRatio="445" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAN23" sheetId="58" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="JUN23" sheetId="63" r:id="rId6"/>
     <sheet name="JUL23" sheetId="64" r:id="rId7"/>
     <sheet name="AUG23" sheetId="65" r:id="rId8"/>
-    <sheet name="SEP22" sheetId="54" r:id="rId9"/>
-    <sheet name="OCT22" sheetId="55" r:id="rId10"/>
-    <sheet name="NOV22" sheetId="56" r:id="rId11"/>
-    <sheet name="DEC22" sheetId="57" r:id="rId12"/>
+    <sheet name="SEP23" sheetId="66" r:id="rId9"/>
+    <sheet name="SEP22" sheetId="54" r:id="rId10"/>
+    <sheet name="OCT22" sheetId="55" r:id="rId11"/>
+    <sheet name="NOV22" sheetId="56" r:id="rId12"/>
+    <sheet name="DEC22" sheetId="57" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -235,13 +236,19 @@
     <t>Aug Exp</t>
   </si>
   <si>
+    <t>AIMIRT</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>Sep Exp</t>
+  </si>
+  <si>
     <t>VNG</t>
   </si>
   <si>
     <t>TPIPL</t>
-  </si>
-  <si>
-    <t>Sep Exp</t>
   </si>
   <si>
     <t xml:space="preserve">PTT </t>
@@ -273,7 +280,7 @@
     <numFmt numFmtId="190" formatCode="0.0000"/>
     <numFmt numFmtId="191" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="14"/>
       <name val="Cordia New"/>
@@ -346,6 +353,11 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -385,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -486,6 +498,7 @@
     <xf numFmtId="188" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="189" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="188" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,6 +1328,1115 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7FC27F-8D9C-4413-896B-92A14FAE71F8}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="H31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.9"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="13" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.5703125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="28">
+        <v>44806</v>
+      </c>
+      <c r="C2" s="29">
+        <v>5000</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="37">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G2" s="31">
+        <f t="shared" ref="G2:G22" si="0">C2*F2</f>
+        <v>1400.0000000000002</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2*0.9</f>
+        <v>1260.0000000000002</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A3" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="28">
+        <v>44806</v>
+      </c>
+      <c r="C3" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="37">
+        <v>1.75</v>
+      </c>
+      <c r="G3" s="31">
+        <f t="shared" si="0"/>
+        <v>26250</v>
+      </c>
+      <c r="H3" s="32">
+        <f>G3*0.9</f>
+        <v>23625</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="28">
+        <v>44806</v>
+      </c>
+      <c r="C4" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="31"/>
+      <c r="F4" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="31">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="H4" s="32">
+        <f>G4</f>
+        <v>1500</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A5" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="28">
+        <v>44806</v>
+      </c>
+      <c r="C5" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="37">
+        <v>0.192</v>
+      </c>
+      <c r="G5" s="31">
+        <f t="shared" si="0"/>
+        <v>5760</v>
+      </c>
+      <c r="H5" s="32">
+        <f>G5*0.9</f>
+        <v>5184</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="28">
+        <v>44809</v>
+      </c>
+      <c r="C6" s="29">
+        <v>40000</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37">
+        <v>0.26</v>
+      </c>
+      <c r="G6" s="31">
+        <f t="shared" si="0"/>
+        <v>10400</v>
+      </c>
+      <c r="H6" s="32">
+        <f>G6</f>
+        <v>10400</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="28">
+        <v>44809</v>
+      </c>
+      <c r="C7" s="29">
+        <v>18000</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="G7" s="31">
+        <f t="shared" si="0"/>
+        <v>3240</v>
+      </c>
+      <c r="H7" s="32">
+        <f>G7*0.9</f>
+        <v>2916</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="28">
+        <v>44810</v>
+      </c>
+      <c r="C8" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="37">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G8" s="31">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="H8" s="32">
+        <f>G8*0.9</f>
+        <v>1890</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="28">
+        <v>44810</v>
+      </c>
+      <c r="C9" s="29">
+        <v>130000</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="37">
+        <v>0.23</v>
+      </c>
+      <c r="G9" s="31">
+        <f t="shared" si="0"/>
+        <v>29900</v>
+      </c>
+      <c r="H9" s="32">
+        <f>G9</f>
+        <v>29900</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="28">
+        <v>44810</v>
+      </c>
+      <c r="C10" s="29">
+        <v>7500</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="37">
+        <v>0.18</v>
+      </c>
+      <c r="G10" s="31">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="H10" s="32">
+        <f>G10*0.9</f>
+        <v>1215</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A11" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="28">
+        <v>44811</v>
+      </c>
+      <c r="C11" s="29">
+        <v>27000</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="H11" s="32">
+        <f>G11</f>
+        <v>1890.0000000000002</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A12" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="28">
+        <v>44812</v>
+      </c>
+      <c r="C12" s="29">
+        <v>22500</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
+      <c r="G12" s="31">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="H12" s="32">
+        <v>20587.5</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C13" s="29">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="H13" s="32">
+        <f>G13*0.9</f>
+        <v>1890</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C14" s="29">
+        <v>15000</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="37">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H14" s="32">
+        <v>14085</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C15" s="29">
+        <v>105000</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="37">
+        <v>0.12692000000000001</v>
+      </c>
+      <c r="G15" s="31">
+        <f t="shared" si="0"/>
+        <v>13326.6</v>
+      </c>
+      <c r="H15" s="32">
+        <v>12060.51</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A16" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C16" s="29">
+        <v>48000</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="G16" s="31">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="H16" s="32">
+        <f t="shared" ref="H16:H22" si="1">G16*0.9</f>
+        <v>6480</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="28">
+        <v>44817</v>
+      </c>
+      <c r="C17" s="29">
+        <v>45000</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="0"/>
+        <v>6750</v>
+      </c>
+      <c r="H17" s="32">
+        <f t="shared" si="1"/>
+        <v>6075</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A18" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="28">
+        <v>44818</v>
+      </c>
+      <c r="C18" s="29">
+        <v>21000</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="0"/>
+        <v>8400</v>
+      </c>
+      <c r="H18" s="32">
+        <f t="shared" si="1"/>
+        <v>7560</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="28">
+        <v>44818</v>
+      </c>
+      <c r="C19" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="37">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="0"/>
+        <v>2010.0000000000002</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" si="1"/>
+        <v>1809.0000000000002</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="28">
+        <v>44819</v>
+      </c>
+      <c r="C20" s="29">
+        <v>2400</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="37">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" si="1"/>
+        <v>864</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A21" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="28">
+        <v>44823</v>
+      </c>
+      <c r="C21" s="29">
+        <v>40000</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="37">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="0"/>
+        <v>6223.9999999999991</v>
+      </c>
+      <c r="H21" s="32">
+        <f t="shared" si="1"/>
+        <v>5601.5999999999995</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21">
+      <c r="A22" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="28">
+        <v>44825</v>
+      </c>
+      <c r="C22" s="29">
+        <v>12000</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+      <c r="H22" s="32">
+        <f t="shared" si="1"/>
+        <v>8100</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="34">
+        <f>SUM(H2:H22)</f>
+        <v>164892.61000000002</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="28">
+        <v>44805</v>
+      </c>
+      <c r="C24" s="29">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="30">
+        <v>18.5</v>
+      </c>
+      <c r="E24" s="31">
+        <v>55622.93</v>
+      </c>
+      <c r="F24" s="30">
+        <v>19</v>
+      </c>
+      <c r="G24" s="31">
+        <v>56873.75</v>
+      </c>
+      <c r="H24" s="32">
+        <f>G24-E24</f>
+        <v>1250.8199999999997</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A25" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="28">
+        <v>44809</v>
+      </c>
+      <c r="C25" s="29">
+        <v>60000</v>
+      </c>
+      <c r="D25" s="30">
+        <v>1.7</v>
+      </c>
+      <c r="E25" s="31">
+        <v>102225.92</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1.71</v>
+      </c>
+      <c r="G25" s="31">
+        <v>102372.75</v>
+      </c>
+      <c r="H25" s="32">
+        <f>G25-E25</f>
+        <v>146.83000000000175</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A26" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="28">
+        <v>44813</v>
+      </c>
+      <c r="C26" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D26" s="30">
+        <v>7.85</v>
+      </c>
+      <c r="E26" s="31">
+        <v>78673.88</v>
+      </c>
+      <c r="F26" s="30">
+        <v>8.25</v>
+      </c>
+      <c r="G26" s="31">
+        <v>82317.27</v>
+      </c>
+      <c r="H26" s="32">
+        <f>G26-E26</f>
+        <v>3643.3899999999994</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A27" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="28">
+        <v>44816</v>
+      </c>
+      <c r="C27" s="29">
+        <v>7500</v>
+      </c>
+      <c r="D27" s="30">
+        <v>14</v>
+      </c>
+      <c r="E27" s="31">
+        <v>105232.56</v>
+      </c>
+      <c r="F27" s="30">
+        <v>14.5</v>
+      </c>
+      <c r="G27" s="31">
+        <v>108509.13</v>
+      </c>
+      <c r="H27" s="32">
+        <f>G27-E27</f>
+        <v>3276.570000000007</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="32">
+        <f>SUM(E24:E27)</f>
+        <v>341755.29000000004</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32">
+        <f>SUM(G24:G27)</f>
+        <v>350072.9</v>
+      </c>
+      <c r="H28" s="43">
+        <f>SUM(H24:H27)</f>
+        <v>8317.6100000000079</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="34">
+        <f>H23+H28</f>
+        <v>173210.22000000003</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="32">
+        <v>378717.68200000009</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A31" s="26"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="41">
+        <f>H29+H30</f>
+        <v>551927.90200000012</v>
+      </c>
+      <c r="K31" s="7"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="35">
+        <v>468340</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A33" s="26"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="35">
+        <v>35345</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="41">
+        <f>H32+H33</f>
+        <v>503685</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="45">
+        <f>H31-H34</f>
+        <v>48242.902000000118</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="38">
+        <v>112000</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="6"/>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A37" s="6"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="42">
+        <f>H35+H36</f>
+        <v>160242.90200000012</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="K38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="C41" s="12"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="10"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="7"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N22">
+    <sortCondition ref="B2:B22"/>
+    <sortCondition ref="A2:A22"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB73B3FB-8409-48F5-A2B7-3BA9D395158E}">
   <dimension ref="A1:N21"/>
   <sheetViews>
@@ -1427,7 +2549,7 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" s="28">
         <v>44840</v>
@@ -1660,7 +2782,7 @@
       <c r="E13" s="32"/>
       <c r="F13" s="30"/>
       <c r="G13" s="32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" s="35">
         <v>71130</v>
@@ -1782,7 +2904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C98757-5F3D-4FA1-98E2-779A87752594}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -2027,7 +3149,7 @@
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8" s="28">
         <v>44873</v>
@@ -2060,7 +3182,7 @@
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="28">
         <v>44880</v>
@@ -2093,7 +3215,7 @@
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B10" s="28">
         <v>44886</v>
@@ -2126,7 +3248,7 @@
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B11" s="28">
         <v>44887</v>
@@ -2260,7 +3382,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="30"/>
       <c r="G17" s="32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="35">
         <v>37950</v>
@@ -2382,7 +3504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BBD29C-D904-43CE-A7C2-0CB7DA792816}">
   <dimension ref="A1:N32"/>
   <sheetViews>
@@ -2815,7 +3937,7 @@
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B14" s="28">
         <v>44918</v>
@@ -3081,7 +4203,7 @@
       <c r="E24" s="32"/>
       <c r="F24" s="30"/>
       <c r="G24" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H24" s="35">
         <v>29530</v>
@@ -6847,8 +7969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0B3A52-20AE-4532-93E1-8BE977BC9CF2}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -7411,15 +8533,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7FC27F-8D9C-4413-896B-92A14FAE71F8}">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978D5E7B-B398-4570-A7BF-52E0C73A88A0}">
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
@@ -7470,30 +8592,30 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A2" s="27" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B2" s="28">
-        <v>44806</v>
+        <v>45175</v>
       </c>
       <c r="C2" s="29">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="37">
-        <v>0.28000000000000003</v>
+        <v>0.223</v>
       </c>
       <c r="G2" s="31">
-        <f t="shared" ref="G2:G22" si="0">C2*F2</f>
-        <v>1400.0000000000002</v>
+        <f>C2*F2</f>
+        <v>2230</v>
       </c>
       <c r="H2" s="32">
         <f>G2*0.9</f>
-        <v>1260.0000000000002</v>
+        <v>2007</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="7"/>
@@ -7502,30 +8624,30 @@
       <c r="M2" s="15"/>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A3" s="27" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B3" s="28">
-        <v>44806</v>
+        <v>45175</v>
       </c>
       <c r="C3" s="29">
-        <v>15000</v>
+        <v>130000</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="37">
-        <v>1.75</v>
+        <v>0.23</v>
       </c>
       <c r="G3" s="31">
-        <f t="shared" si="0"/>
-        <v>26250</v>
+        <f>C3*F3</f>
+        <v>29900</v>
       </c>
       <c r="H3" s="32">
-        <f>G3*0.9</f>
-        <v>23625</v>
+        <f>G3</f>
+        <v>29900</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="7"/>
@@ -7534,12 +8656,12 @@
       <c r="M3" s="15"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A4" s="27" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B4" s="28">
-        <v>44806</v>
+        <v>45175</v>
       </c>
       <c r="C4" s="29">
         <v>15000</v>
@@ -7552,12 +8674,12 @@
         <v>0.1</v>
       </c>
       <c r="G4" s="31">
-        <f t="shared" si="0"/>
+        <f>C4*F4</f>
         <v>1500</v>
       </c>
       <c r="H4" s="32">
-        <f>G4</f>
-        <v>1500</v>
+        <f>G4*0.9</f>
+        <v>1350</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="7"/>
@@ -7566,12 +8688,12 @@
       <c r="M4" s="15"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A5" s="27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" s="28">
-        <v>44806</v>
+        <v>45176</v>
       </c>
       <c r="C5" s="29">
         <v>30000</v>
@@ -7581,15 +8703,15 @@
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="37">
-        <v>0.192</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="G5" s="31">
-        <f t="shared" si="0"/>
-        <v>5760</v>
-      </c>
-      <c r="H5" s="32">
+        <f>C5*F5</f>
+        <v>7110</v>
+      </c>
+      <c r="H5" s="68">
         <f>G5*0.9</f>
-        <v>5184</v>
+        <v>6399</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="7"/>
@@ -7598,30 +8720,29 @@
       <c r="M5" s="15"/>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A6" s="27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B6" s="28">
-        <v>44809</v>
+        <v>45176</v>
       </c>
       <c r="C6" s="29">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37">
-        <v>0.26</v>
+        <v>0.6</v>
       </c>
       <c r="G6" s="31">
-        <f t="shared" si="0"/>
-        <v>10400</v>
-      </c>
-      <c r="H6" s="32">
-        <f>G6</f>
-        <v>10400</v>
+        <f>C6*F6</f>
+        <v>6000</v>
+      </c>
+      <c r="H6" s="68">
+        <v>5520</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="7"/>
@@ -7630,30 +8751,30 @@
       <c r="M6" s="15"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A7" s="27" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B7" s="28">
-        <v>44809</v>
+        <v>45176</v>
       </c>
       <c r="C7" s="29">
-        <v>18000</v>
+        <v>30000</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="37">
-        <v>0.18</v>
+        <v>0.193</v>
       </c>
       <c r="G7" s="31">
-        <f t="shared" si="0"/>
-        <v>3240</v>
-      </c>
-      <c r="H7" s="32">
+        <f>C7*F7</f>
+        <v>5790</v>
+      </c>
+      <c r="H7" s="68">
         <f>G7*0.9</f>
-        <v>2916</v>
+        <v>5211</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="7"/>
@@ -7662,12 +8783,12 @@
       <c r="M7" s="15"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A8" s="27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="28">
-        <v>44810</v>
+        <v>45177</v>
       </c>
       <c r="C8" s="29">
         <v>60000</v>
@@ -7677,15 +8798,15 @@
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="37">
-        <v>3.5000000000000003E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G8" s="31">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="H8" s="32">
+        <f>C8*F8</f>
+        <v>17400</v>
+      </c>
+      <c r="H8" s="68">
         <f>G8*0.9</f>
-        <v>1890</v>
+        <v>15660</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="7"/>
@@ -7694,30 +8815,30 @@
       <c r="M8" s="15"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A9" s="27" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B9" s="28">
-        <v>44810</v>
+        <v>45177</v>
       </c>
       <c r="C9" s="29">
-        <v>130000</v>
+        <v>4200</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="37">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="G9" s="31">
-        <f t="shared" si="0"/>
-        <v>29900</v>
-      </c>
-      <c r="H9" s="32">
-        <f>G9</f>
-        <v>29900</v>
+        <f>C9*F9</f>
+        <v>1428</v>
+      </c>
+      <c r="H9" s="68">
+        <f>G9*0.9</f>
+        <v>1285.2</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="7"/>
@@ -7726,30 +8847,30 @@
       <c r="M9" s="15"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A10" s="27" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B10" s="28">
-        <v>44810</v>
+        <v>45177</v>
       </c>
       <c r="C10" s="29">
-        <v>7500</v>
+        <v>27000</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="37">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="G10" s="31">
-        <f t="shared" si="0"/>
+        <f>C10*F10</f>
         <v>1350</v>
       </c>
-      <c r="H10" s="32">
-        <f>G10*0.9</f>
-        <v>1215</v>
+      <c r="H10" s="68">
+        <f>G10</f>
+        <v>1350</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="7"/>
@@ -7758,12 +8879,12 @@
       <c r="M10" s="15"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A11" s="27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B11" s="28">
-        <v>44811</v>
+        <v>45177</v>
       </c>
       <c r="C11" s="29">
         <v>27000</v>
@@ -7773,15 +8894,15 @@
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="37">
-        <v>7.0000000000000007E-2</v>
+        <v>0.25</v>
       </c>
       <c r="G11" s="31">
-        <f t="shared" si="0"/>
-        <v>1890.0000000000002</v>
-      </c>
-      <c r="H11" s="32">
+        <f>C11*F11</f>
+        <v>6750</v>
+      </c>
+      <c r="H11" s="68">
         <f>G11</f>
-        <v>1890.0000000000002</v>
+        <v>6750</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="7"/>
@@ -7790,29 +8911,30 @@
       <c r="M11" s="15"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A12" s="27" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B12" s="28">
-        <v>44812</v>
+        <v>45177</v>
       </c>
       <c r="C12" s="29">
-        <v>22500</v>
+        <v>36000</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="37">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G12" s="31">
-        <f t="shared" si="0"/>
-        <v>22500</v>
-      </c>
-      <c r="H12" s="32">
-        <v>20587.5</v>
+        <f>C12*F12</f>
+        <v>5400</v>
+      </c>
+      <c r="H12" s="68">
+        <f>G12*0.9</f>
+        <v>4860</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="7"/>
@@ -7821,30 +8943,29 @@
       <c r="M12" s="15"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A13" s="27" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B13" s="28">
-        <v>44813</v>
+        <v>45180</v>
       </c>
       <c r="C13" s="29">
-        <v>30000</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="37">
-        <v>7.0000000000000007E-2</v>
+        <v>0.7</v>
       </c>
       <c r="G13" s="31">
-        <f t="shared" si="0"/>
-        <v>2100</v>
+        <f>C13*F13</f>
+        <v>840</v>
       </c>
       <c r="H13" s="32">
-        <f>G13*0.9</f>
-        <v>1890</v>
+        <v>772.8</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="7"/>
@@ -7853,29 +8974,30 @@
       <c r="M13" s="15"/>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A14" s="27" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B14" s="28">
-        <v>44813</v>
+        <v>45181</v>
       </c>
       <c r="C14" s="29">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="37">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="G14" s="31">
-        <f t="shared" si="0"/>
-        <v>15000</v>
+        <f>C14*F14</f>
+        <v>2400</v>
       </c>
       <c r="H14" s="32">
-        <v>14085</v>
+        <f>G14*0.9</f>
+        <v>2160</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="7"/>
@@ -7884,29 +9006,30 @@
       <c r="M14" s="15"/>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A15" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="28">
-        <v>44813</v>
+        <v>45182</v>
       </c>
       <c r="C15" s="29">
-        <v>105000</v>
+        <v>7200</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="37">
-        <v>0.12692000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G15" s="31">
-        <f t="shared" si="0"/>
-        <v>13326.6</v>
+        <f>C15*F15</f>
+        <v>1800</v>
       </c>
       <c r="H15" s="32">
-        <v>12060.51</v>
+        <f>G15*0.9</f>
+        <v>1620</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="7"/>
@@ -7915,29 +9038,29 @@
       <c r="M15" s="15"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A16" s="27" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B16" s="28">
-        <v>44813</v>
+        <v>45182</v>
       </c>
       <c r="C16" s="29">
-        <v>48000</v>
+        <v>45000</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="37">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="G16" s="31">
-        <f t="shared" si="0"/>
+        <f>C16*F16</f>
         <v>7200</v>
       </c>
       <c r="H16" s="32">
-        <f t="shared" ref="H16:H22" si="1">G16*0.9</f>
+        <f>G16*0.9</f>
         <v>6480</v>
       </c>
       <c r="I16" s="11"/>
@@ -7947,30 +9070,30 @@
       <c r="M16" s="15"/>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="17" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A17" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" s="28">
-        <v>44817</v>
+        <v>45183</v>
       </c>
       <c r="C17" s="29">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="37">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="31">
-        <f t="shared" si="0"/>
-        <v>6750</v>
+        <f>C17*F17</f>
+        <v>1500</v>
       </c>
       <c r="H17" s="32">
-        <f t="shared" si="1"/>
-        <v>6075</v>
+        <f>G17*0.9</f>
+        <v>1350</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="7"/>
@@ -7979,30 +9102,30 @@
       <c r="M17" s="15"/>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="18" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A18" s="27" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B18" s="28">
-        <v>44818</v>
+        <v>45183</v>
       </c>
       <c r="C18" s="29">
-        <v>21000</v>
+        <v>42000</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="37">
-        <v>0.4</v>
+        <v>0.20150000000000001</v>
       </c>
       <c r="G18" s="31">
-        <f t="shared" si="0"/>
-        <v>8400</v>
+        <f>C18*F18</f>
+        <v>8463</v>
       </c>
       <c r="H18" s="32">
-        <f t="shared" si="1"/>
-        <v>7560</v>
+        <f>G18*0.9</f>
+        <v>7616.7</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="7"/>
@@ -8011,30 +9134,30 @@
       <c r="M18" s="15"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A19" s="27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" s="28">
-        <v>44818</v>
+        <v>45188</v>
       </c>
       <c r="C19" s="29">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="37">
-        <v>0.20100000000000001</v>
+        <v>0.1009</v>
       </c>
       <c r="G19" s="31">
-        <f t="shared" si="0"/>
-        <v>2010.0000000000002</v>
+        <f>C19*F19</f>
+        <v>2018</v>
       </c>
       <c r="H19" s="32">
-        <f t="shared" si="1"/>
-        <v>1809.0000000000002</v>
+        <f>G19</f>
+        <v>2018</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="7"/>
@@ -8043,30 +9166,30 @@
       <c r="M19" s="15"/>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="21.75">
       <c r="A20" s="27" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B20" s="28">
-        <v>44819</v>
+        <v>45188</v>
       </c>
       <c r="C20" s="29">
-        <v>2400</v>
+        <v>50000</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="37">
-        <v>0.4</v>
+        <v>0.13689999999999999</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="0"/>
-        <v>960</v>
+        <f>C20*F20</f>
+        <v>6845</v>
       </c>
       <c r="H20" s="32">
-        <f t="shared" si="1"/>
-        <v>864</v>
+        <f>G20*0.9</f>
+        <v>6160.5</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="7"/>
@@ -8075,30 +9198,17 @@
       <c r="M20" s="15"/>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="21">
-      <c r="A21" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="28">
-        <v>44823</v>
-      </c>
-      <c r="C21" s="29">
-        <v>40000</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>21</v>
-      </c>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="31"/>
-      <c r="F21" s="37">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="G21" s="31">
-        <f t="shared" si="0"/>
-        <v>6223.9999999999991</v>
-      </c>
-      <c r="H21" s="32">
-        <f t="shared" si="1"/>
-        <v>5601.5999999999995</v>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="34">
+        <f>SUM(H2:H20)</f>
+        <v>108470.2</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="7"/>
@@ -8107,30 +9217,31 @@
       <c r="M21" s="15"/>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="21">
+    <row r="22" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A22" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="28">
-        <v>44825</v>
+        <v>45175</v>
       </c>
       <c r="C22" s="29">
-        <v>12000</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="37">
-        <v>0.75</v>
+        <v>1200</v>
+      </c>
+      <c r="D22" s="30">
+        <v>23.5</v>
+      </c>
+      <c r="E22" s="31">
+        <v>28262.46</v>
+      </c>
+      <c r="F22" s="30">
+        <v>24.7</v>
       </c>
       <c r="G22" s="31">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>29574.1</v>
       </c>
       <c r="H22" s="32">
-        <f t="shared" si="1"/>
-        <v>8100</v>
+        <f>G22-E22</f>
+        <v>1311.6399999999994</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="7"/>
@@ -8140,16 +9251,30 @@
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="34">
-        <f>SUM(H2:H22)</f>
-        <v>164892.61000000002</v>
+      <c r="A23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="28">
+        <v>45194</v>
+      </c>
+      <c r="C23" s="29">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="30">
+        <v>22.6</v>
+      </c>
+      <c r="E23" s="31">
+        <v>45300.11</v>
+      </c>
+      <c r="F23" s="30">
+        <v>24.1</v>
+      </c>
+      <c r="G23" s="31">
+        <v>48093.25</v>
+      </c>
+      <c r="H23" s="32">
+        <f>G23-E23</f>
+        <v>2793.1399999999994</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="7"/>
@@ -8158,64 +9283,41 @@
       <c r="M23" s="15"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="28">
-        <v>44805</v>
-      </c>
-      <c r="C24" s="29">
-        <v>3000</v>
-      </c>
-      <c r="D24" s="30">
-        <v>18.5</v>
-      </c>
-      <c r="E24" s="31">
-        <v>55622.93</v>
-      </c>
-      <c r="F24" s="30">
-        <v>19</v>
-      </c>
-      <c r="G24" s="31">
-        <v>56873.75</v>
+    <row r="24" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A24" s="26"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="32">
+        <f>SUM(E22:E23)</f>
+        <v>73562.570000000007</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32">
+        <f t="shared" ref="G24:H24" si="0">SUM(G22:G23)</f>
+        <v>77667.350000000006</v>
       </c>
       <c r="H24" s="32">
-        <f>G24-E24</f>
-        <v>1250.8199999999997</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
+        <f t="shared" si="0"/>
+        <v>4104.7799999999988</v>
+      </c>
       <c r="K24" s="7"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="6"/>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A25" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="28">
-        <v>44809</v>
-      </c>
-      <c r="C25" s="29">
-        <v>60000</v>
-      </c>
-      <c r="D25" s="30">
-        <v>1.7</v>
-      </c>
-      <c r="E25" s="31">
-        <v>102225.92</v>
-      </c>
-      <c r="F25" s="30">
-        <v>1.71</v>
-      </c>
-      <c r="G25" s="31">
-        <v>102372.75</v>
-      </c>
-      <c r="H25" s="32">
-        <f>G25-E25</f>
-        <v>146.83000000000175</v>
+      <c r="A25" s="26"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="34">
+        <f>H21+H24</f>
+        <v>112574.98</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="7"/>
@@ -8224,95 +9326,59 @@
       <c r="M25" s="15"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="28">
-        <v>44813</v>
-      </c>
-      <c r="C26" s="29">
-        <v>10000</v>
-      </c>
-      <c r="D26" s="30">
-        <v>7.85</v>
-      </c>
-      <c r="E26" s="31">
-        <v>78673.88</v>
-      </c>
-      <c r="F26" s="30">
-        <v>8.25</v>
-      </c>
-      <c r="G26" s="31">
-        <v>82317.27</v>
+    <row r="26" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="H26" s="32">
-        <f>G26-E26</f>
-        <v>3643.3899999999994</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="7"/>
+        <v>243770.735204</v>
+      </c>
       <c r="K26" s="7"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="28">
-        <v>44816</v>
-      </c>
-      <c r="C27" s="29">
-        <v>7500</v>
-      </c>
-      <c r="D27" s="30">
-        <v>14</v>
-      </c>
-      <c r="E27" s="31">
-        <v>105232.56</v>
-      </c>
-      <c r="F27" s="30">
-        <v>14.5</v>
-      </c>
-      <c r="G27" s="31">
-        <v>108509.13</v>
-      </c>
-      <c r="H27" s="32">
-        <f>G27-E27</f>
-        <v>3276.570000000007</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="7"/>
+    </row>
+    <row r="27" spans="1:14" ht="21.75" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="41">
+        <f>H25+H26</f>
+        <v>356345.71520400001</v>
+      </c>
       <c r="K27" s="7"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" ht="21.75" customHeight="1">
       <c r="A28" s="26"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="32">
-        <f>SUM(E24:E27)</f>
-        <v>341755.29000000004</v>
-      </c>
+      <c r="E28" s="32"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="32">
-        <f>SUM(G24:G27)</f>
-        <v>350072.9</v>
-      </c>
-      <c r="H28" s="43">
-        <f>SUM(H24:H27)</f>
-        <v>8317.6100000000079</v>
+      <c r="G28" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="35">
+        <v>853790</v>
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="29" spans="1:14" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="28"/>
       <c r="C29" s="29"/>
@@ -8320,20 +9386,16 @@
       <c r="E29" s="32"/>
       <c r="F29" s="30"/>
       <c r="G29" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="34">
-        <f>H23+H28</f>
-        <v>173210.22000000003</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="H29" s="35">
+        <v>40000</v>
+      </c>
       <c r="K29" s="7"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" ht="21.75" customHeight="1">
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
@@ -8341,177 +9403,108 @@
       <c r="E30" s="32"/>
       <c r="F30" s="30"/>
       <c r="G30" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="32">
-        <v>378717.68200000009</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H30" s="41">
+        <f>H28+H29</f>
+        <v>893790</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-    </row>
-    <row r="31" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="30"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A31" s="5"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10"/>
       <c r="G31" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="41">
-        <f>H29+H30</f>
-        <v>551927.90200000012</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H31" s="45">
+        <f>H27-H30</f>
+        <v>-537444.28479599999</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-    </row>
-    <row r="32" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="35">
-        <v>468340</v>
-      </c>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="38">
+        <v>112000</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
-    </row>
-    <row r="33" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="35">
-        <v>35345</v>
-      </c>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="42">
+        <f>H31+H32</f>
+        <v>-425444.28479599999</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="41">
-        <f>H32+H33</f>
-        <v>503685</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="7"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" ht="13.9">
       <c r="K34" s="7"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A35" s="5"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="45">
-        <f>H31-H34</f>
-        <v>48242.902000000118</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="38">
-        <v>112000</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A37" s="6"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="42">
-        <f>H35+H36</f>
-        <v>160242.90200000012</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="7"/>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" ht="13.9">
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" ht="13.9">
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" ht="13.9">
+      <c r="C37" s="12"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="10"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="K38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="M40" s="7"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="C41" s="12"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="10"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="7"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N22">
-    <sortCondition ref="B2:B22"/>
-    <sortCondition ref="A2:A22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
+    <sortCondition ref="B2:B20"/>
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
